--- a/Final_Project_GM/1팀_단위업무정의서_수정본_EIEIEI.xlsx
+++ b/Final_Project_GM/1팀_단위업무정의서_수정본_EIEIEI.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19050" windowHeight="9150" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19050" windowHeight="9150" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="표지" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="김상재">단위업무정의목록!$B$96:$B$105,단위업무정의목록!$B$106:$B$115,단위업무정의목록!#REF!,단위업무정의목록!#REF!</definedName>
     <definedName name="김성진">단위업무정의목록!#REF!,단위업무정의목록!#REF!</definedName>
     <definedName name="송현준">단위업무정의목록!#REF!,단위업무정의목록!#REF!,단위업무정의목록!#REF!</definedName>
-    <definedName name="신철헌">단위업무정의목록!$B$20:$B$33,단위업무정의목록!#REF!,단위업무정의목록!#REF!</definedName>
+    <definedName name="신철헌">단위업무정의목록!#REF!,단위업무정의목록!#REF!,단위업무정의목록!#REF!</definedName>
     <definedName name="이지현">단위업무정의목록!#REF!</definedName>
     <definedName name="최동주">단위업무정의목록!$B$5:$B$13,단위업무정의목록!$B$34:$B$44,단위업무정의목록!$B$81:$B$83</definedName>
   </definedNames>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="315">
   <si>
     <t>1.0</t>
   </si>
@@ -265,10 +265,6 @@
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
-    <t>위젯 편집 기능 구현</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
     <t>공통</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
@@ -297,40 +293,7 @@
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
-    <t>지도 내 질병 표시</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>축사 추가</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">가축 품종, 개채수, 축사 평수, 시설 및 인프라 보유현황, 
-축사 보험가입 유무, 축사번호 등록 </t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>알림 기능</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
     <t>FOOTER</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>API 를 사용하여 판메 시세 제공</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>자연재해, 바이러스 주의 안내 메시지 전달</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>알림 기록</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>알림 메시지 기록관리</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
@@ -479,18 +442,6 @@
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
-    <t>DASHBOARD</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>DASHBOARD</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>DASHBOARD</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
     <t>MYPAGE</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
@@ -500,10 +451,6 @@
   </si>
   <si>
     <t>NAV</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>MYPAGE</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
@@ -622,63 +569,7 @@
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
-    <t>지도 구현</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>내 위치 정보 표시</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>지도 내 주요 질병 데이터(발병날짜, 주요 병명) 표시</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>DASHBOARD</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>날씨 구현</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>날씨 API 를 통한 날씨 정보 구현</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>원격제어(사용자 직접 지정)</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>원격제어(추천셋팅 지정)</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>날씨의 영향과 축사 내 기존 셋팅값의 기준을 초과시 추천셋팅 표시</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>축사 삭제</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">가축의 폐사 또는 판매 등으로 인한 축사 삭제 </t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>축사 수정</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>축사의 증축, 공사 등의 이유로 축사의 평수 등을 조절</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>실시간 축산 개체의 시세</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
@@ -771,22 +662,6 @@
   </si>
   <si>
     <t>게시글 열람</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>가축 종류 선택 및 축사번호 선택</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>가축 종류 및 축사를 선택하여 원격제어 할수 있는 상태를 변경</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>차트의 종류 선택</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>차트의 종류 선택을 통한 데이터 시각화의 다양화 구현</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
@@ -954,47 +829,7 @@
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
-    <t>박근모</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>김예은</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">위젯 순서 및 디자인 편집 </t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>박근모</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>홍명주</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>김예은</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
     <t>김경문</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>차준호</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>김경문</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>김원진</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>김원진</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
@@ -1078,10 +913,6 @@
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
-    <t>가축 주요 데이터를 기반으로 온습도 외 사용자가 직접 제어</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
     <t>CCTV 영상 저장</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
@@ -1155,19 +986,7 @@
     <t>IMPORMATION</t>
   </si>
   <si>
-    <t>최초화면(IMPORMATION)</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>최초화면/로그인(LOGIN)</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
     <t>LOGIN</t>
-  </si>
-  <si>
-    <t>회원가입(SIGN)</t>
-    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>SIGN</t>
@@ -1185,7 +1004,265 @@
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
+    <t>축사 이름 위젯</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>위젯 보드</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">캘린더 </t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택된 축사 타이틀 위젯 상단 고정</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>MYPAGE</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>캘린더 접기, 캘린더 선택, 오늘 날짜버튼, 일정추가, 일정 숨기기, 추가된 일정 카드, 대시보드 편집버튼</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
     <t>DASHBOARD</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>DASHBOARD_TITLE_WIDGET</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>DASHBOARD_WIDGET</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>DASHBOARD_CALENDAR</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>농장/가축 추가</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 축사 정보</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택된 축사 정보</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>축사 데이터 확인</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>농장 및 가축 추가 및 추가 예시 엑셀 버튼</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>위젯 체크박스(백신정보, 가축별 총데이터, 물 사료 소비량, 질병 지도 데이터, 온도 조절, 습도 조절, 조도 조절, CO2 조절, NH3 조절, 5일 날씨, 현재 농장 가축 수, 발정&amp;생산량, 건강 상태, 폐사율, CCTV</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>가축</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="HY견고딕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>종류,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>총 개체수, 평균무게, 일일 사료 소비량, 선택된 축종, 건강 상태, 예방접종률, 격리 개체수, 폐사율</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>가축 종류, 농장 위치, 가축 수, 사료/물 소비량, 온도/습도, 발정 예정 개체수, 건강상태, 백신 및 접종 기록, 폐사율</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택된 축사 정보의 그래프</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>FARMDATA</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>FARMDATA_ADDFARM</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>FARMDATA_TOTAL_FARMINFO</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>FARMDATA_SELECTED_FARMINFO</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>FARMDATA_DATA_FIGURE</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIGN_SIGHUP</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIGN_SOCIAL_SIGHUP</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIGN_ALERT_SIGHUP</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIGN_CONFARM_SIGHUP</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGIN_LOGINPAGE</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGIN_SOCIAL</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGIN_LOGOUT</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGIN_ID_SEARCH</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGIN_PASSWORD_SEARCH</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMPORMATION</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>FARMINFO</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>축사 정보</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>축사 제어</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>문진표 작성</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>문진표 내역</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>질병 정보</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>축사이름, 축사번호, 마지막 수정시간, 정보보기 버튼, 삭제 버튼 표</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>온도, 습도, 조도, CO2, NH3 조절 제어판</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>축사 문진표 입력란</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성된 문진표 목록</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>월별 질병 발생 데이터 정보, 질병 사전 정보</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>FARMINFO_INFOMATION</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>FARMINFO_CONTROLS</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>FARMINFO_ADD_MEDICALLIST</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>FARMINFO_MEDICALLISTS</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>FARMINFO_DISEASEINFO</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>STOCKINFO</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>나의 축사 리스트</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>가축 종류 선택, 검색 기능, 질병 등록, 백신 정보, 가축 리스트 표</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
@@ -1777,7 +1854,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2109,9 +2186,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2129,6 +2203,24 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2144,13 +2236,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2161,117 +2256,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2294,8 +2278,35 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2303,7 +2314,106 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -34103,12 +34213,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="21" customHeight="1">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="118"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="123"/>
       <c r="E1" s="1"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -34133,14 +34243,14 @@
       <c r="Z1" s="3"/>
     </row>
     <row r="2" spans="1:26" ht="21" customHeight="1">
-      <c r="A2" s="117" t="s">
+      <c r="A2" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="118"/>
-      <c r="C2" s="121" t="s">
+      <c r="B2" s="123"/>
+      <c r="C2" s="126" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="118"/>
+      <c r="D2" s="123"/>
       <c r="E2" s="1"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -62146,8 +62256,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AB1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="B25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -62172,24 +62282,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="30" customHeight="1">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="166"/>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
-      <c r="F1" s="166"/>
-      <c r="G1" s="166"/>
-      <c r="H1" s="166"/>
-      <c r="I1" s="166"/>
-      <c r="J1" s="166"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
     </row>
     <row r="2" spans="1:28" ht="15" customHeight="1">
-      <c r="A2" s="165" t="s">
+      <c r="A2" s="134" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="165"/>
+      <c r="B2" s="134"/>
       <c r="C2" s="64" t="s">
         <v>61</v>
       </c>
@@ -62202,10 +62312,10 @@
       <c r="F2" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="158">
+      <c r="G2" s="155">
         <v>45526</v>
       </c>
-      <c r="H2" s="159"/>
+      <c r="H2" s="156"/>
       <c r="I2" s="72" t="s">
         <v>30</v>
       </c>
@@ -62234,10 +62344,10 @@
       <c r="F3" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="160" t="s">
+      <c r="G3" s="157" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="160"/>
+      <c r="H3" s="157"/>
       <c r="I3" s="76" t="s">
         <v>16</v>
       </c>
@@ -62245,10 +62355,10 @@
         <v>39</v>
       </c>
       <c r="K3" s="49"/>
-      <c r="L3" s="167" t="s">
+      <c r="L3" s="136" t="s">
         <v>47</v>
       </c>
-      <c r="M3" s="168"/>
+      <c r="M3" s="137"/>
       <c r="N3" s="56"/>
       <c r="O3" s="57"/>
       <c r="P3" s="57"/>
@@ -62266,31 +62376,31 @@
     <row r="4" spans="1:28" ht="26.25" customHeight="1">
       <c r="A4" s="80"/>
       <c r="B4" s="80" t="s">
-        <v>296</v>
+        <v>254</v>
       </c>
       <c r="C4" s="80" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D4" s="80" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="81" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F4" s="82" t="s">
-        <v>243</v>
-      </c>
-      <c r="G4" s="152" t="s">
         <v>212</v>
       </c>
-      <c r="H4" s="152"/>
+      <c r="G4" s="127" t="s">
+        <v>181</v>
+      </c>
+      <c r="H4" s="127"/>
       <c r="I4" s="83"/>
       <c r="J4" s="82" t="s">
-        <v>276</v>
+        <v>235</v>
       </c>
       <c r="K4" s="49"/>
-      <c r="L4" s="167"/>
-      <c r="M4" s="168"/>
+      <c r="L4" s="136"/>
+      <c r="M4" s="137"/>
       <c r="N4" s="66"/>
       <c r="O4" s="67"/>
       <c r="P4" s="67"/>
@@ -62309,32 +62419,32 @@
       <c r="A5" s="80">
         <v>1</v>
       </c>
-      <c r="B5" s="116" t="s">
-        <v>299</v>
+      <c r="B5" s="179" t="s">
+        <v>255</v>
       </c>
       <c r="C5" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="122" t="s">
-        <v>73</v>
+      <c r="D5" s="148" t="s">
+        <v>72</v>
       </c>
-      <c r="E5" s="128" t="s">
-        <v>298</v>
+      <c r="E5" s="121" t="s">
+        <v>290</v>
       </c>
-      <c r="F5" s="140" t="s">
-        <v>242</v>
+      <c r="F5" s="145" t="s">
+        <v>211</v>
       </c>
-      <c r="G5" s="152" t="s">
+      <c r="G5" s="127" t="s">
         <v>65</v>
       </c>
-      <c r="H5" s="152"/>
+      <c r="H5" s="127"/>
       <c r="I5" s="83"/>
-      <c r="J5" s="162" t="s">
-        <v>244</v>
+      <c r="J5" s="128" t="s">
+        <v>213</v>
       </c>
       <c r="K5" s="43"/>
-      <c r="L5" s="169"/>
-      <c r="M5" s="168"/>
+      <c r="L5" s="138"/>
+      <c r="M5" s="137"/>
       <c r="N5" s="59"/>
       <c r="O5" s="60"/>
       <c r="P5" s="60"/>
@@ -62353,26 +62463,26 @@
       <c r="A6" s="80">
         <v>2</v>
       </c>
-      <c r="B6" s="116" t="s">
-        <v>299</v>
-      </c>
+      <c r="B6" s="180"/>
       <c r="C6" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="123"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="141"/>
-      <c r="G6" s="152" t="s">
+      <c r="D6" s="149"/>
+      <c r="E6" s="121" t="s">
+        <v>291</v>
+      </c>
+      <c r="F6" s="146"/>
+      <c r="G6" s="127" t="s">
         <v>66</v>
       </c>
-      <c r="H6" s="152"/>
+      <c r="H6" s="127"/>
       <c r="I6" s="83"/>
-      <c r="J6" s="163"/>
+      <c r="J6" s="129"/>
       <c r="K6" s="4"/>
-      <c r="L6" s="170" t="s">
+      <c r="L6" s="139" t="s">
         <v>48</v>
       </c>
-      <c r="M6" s="171"/>
+      <c r="M6" s="140"/>
       <c r="N6" s="52"/>
       <c r="O6" s="46"/>
       <c r="P6" s="46"/>
@@ -62391,21 +62501,21 @@
       <c r="A7" s="80">
         <v>3</v>
       </c>
-      <c r="B7" s="116" t="s">
-        <v>299</v>
-      </c>
+      <c r="B7" s="180"/>
       <c r="C7" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="123"/>
-      <c r="E7" s="129"/>
-      <c r="F7" s="141"/>
-      <c r="G7" s="152" t="s">
+      <c r="D7" s="149"/>
+      <c r="E7" s="121" t="s">
+        <v>292</v>
+      </c>
+      <c r="F7" s="146"/>
+      <c r="G7" s="127" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="152"/>
+      <c r="H7" s="127"/>
       <c r="I7" s="83"/>
-      <c r="J7" s="163"/>
+      <c r="J7" s="129"/>
       <c r="K7" s="18"/>
       <c r="L7" s="18"/>
       <c r="M7" s="44"/>
@@ -62429,21 +62539,21 @@
       <c r="A8" s="80">
         <v>4</v>
       </c>
-      <c r="B8" s="80" t="s">
-        <v>299</v>
-      </c>
+      <c r="B8" s="180"/>
       <c r="C8" s="84" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="123"/>
-      <c r="E8" s="129"/>
-      <c r="F8" s="141"/>
-      <c r="G8" s="152" t="s">
+      <c r="D8" s="149"/>
+      <c r="E8" s="121" t="s">
+        <v>293</v>
+      </c>
+      <c r="F8" s="146"/>
+      <c r="G8" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="152"/>
+      <c r="H8" s="127"/>
       <c r="I8" s="83"/>
-      <c r="J8" s="163"/>
+      <c r="J8" s="129"/>
       <c r="K8" s="18"/>
       <c r="L8" s="18"/>
       <c r="M8" s="40"/>
@@ -62467,21 +62577,21 @@
       <c r="A9" s="80">
         <v>4</v>
       </c>
-      <c r="B9" s="80" t="s">
-        <v>299</v>
+      <c r="B9" s="181"/>
+      <c r="C9" s="84" t="s">
+        <v>148</v>
       </c>
-      <c r="C9" s="84" t="s">
-        <v>161</v>
+      <c r="D9" s="150"/>
+      <c r="E9" s="121" t="s">
+        <v>294</v>
       </c>
-      <c r="D9" s="124"/>
-      <c r="E9" s="130"/>
-      <c r="F9" s="142"/>
-      <c r="G9" s="152" t="s">
-        <v>162</v>
+      <c r="F9" s="147"/>
+      <c r="G9" s="127" t="s">
+        <v>149</v>
       </c>
-      <c r="H9" s="152"/>
+      <c r="H9" s="127"/>
       <c r="I9" s="108"/>
-      <c r="J9" s="164"/>
+      <c r="J9" s="130"/>
       <c r="K9" s="18"/>
       <c r="L9" s="18"/>
       <c r="M9" s="40"/>
@@ -62505,28 +62615,28 @@
       <c r="A10" s="80">
         <v>7</v>
       </c>
-      <c r="B10" s="116" t="s">
-        <v>301</v>
+      <c r="B10" s="179" t="s">
+        <v>256</v>
       </c>
       <c r="C10" s="84" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
-      <c r="D10" s="144" t="s">
+      <c r="D10" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="172" t="s">
-        <v>300</v>
+      <c r="E10" s="186" t="s">
+        <v>286</v>
       </c>
-      <c r="F10" s="161" t="s">
-        <v>241</v>
+      <c r="F10" s="158" t="s">
+        <v>210</v>
       </c>
-      <c r="G10" s="152" t="s">
+      <c r="G10" s="127" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="152"/>
+      <c r="H10" s="127"/>
       <c r="I10" s="83"/>
-      <c r="J10" s="111" t="s">
-        <v>245</v>
+      <c r="J10" s="110" t="s">
+        <v>214</v>
       </c>
       <c r="K10" s="18"/>
       <c r="L10" s="18"/>
@@ -62551,22 +62661,22 @@
       <c r="A11" s="80">
         <v>8</v>
       </c>
-      <c r="B11" s="116" t="s">
-        <v>301</v>
-      </c>
+      <c r="B11" s="180"/>
       <c r="C11" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="144"/>
-      <c r="E11" s="172"/>
-      <c r="F11" s="161"/>
-      <c r="G11" s="152" t="s">
+      <c r="D11" s="141"/>
+      <c r="E11" s="186" t="s">
+        <v>287</v>
+      </c>
+      <c r="F11" s="158"/>
+      <c r="G11" s="127" t="s">
         <v>68</v>
       </c>
-      <c r="H11" s="152"/>
+      <c r="H11" s="127"/>
       <c r="I11" s="83"/>
-      <c r="J11" s="125" t="s">
-        <v>242</v>
+      <c r="J11" s="131" t="s">
+        <v>211</v>
       </c>
       <c r="K11" s="18"/>
       <c r="L11" s="18"/>
@@ -62591,21 +62701,21 @@
       <c r="A12" s="80">
         <v>9</v>
       </c>
-      <c r="B12" s="80" t="s">
-        <v>301</v>
-      </c>
+      <c r="B12" s="180"/>
       <c r="C12" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="144"/>
-      <c r="E12" s="172"/>
-      <c r="F12" s="161"/>
-      <c r="G12" s="152" t="s">
+      <c r="D12" s="141"/>
+      <c r="E12" s="186" t="s">
+        <v>288</v>
+      </c>
+      <c r="F12" s="158"/>
+      <c r="G12" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="152"/>
+      <c r="H12" s="127"/>
       <c r="I12" s="83"/>
-      <c r="J12" s="126"/>
+      <c r="J12" s="132"/>
       <c r="K12" s="18"/>
       <c r="L12" s="18"/>
       <c r="M12" s="18"/>
@@ -62629,21 +62739,21 @@
       <c r="A13" s="80">
         <v>10</v>
       </c>
-      <c r="B13" s="80" t="s">
-        <v>301</v>
-      </c>
+      <c r="B13" s="181"/>
       <c r="C13" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="144"/>
-      <c r="E13" s="172"/>
-      <c r="F13" s="161"/>
-      <c r="G13" s="152" t="s">
+      <c r="D13" s="141"/>
+      <c r="E13" s="186" t="s">
+        <v>289</v>
+      </c>
+      <c r="F13" s="158"/>
+      <c r="G13" s="127" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="152"/>
+      <c r="H13" s="127"/>
       <c r="I13" s="83"/>
-      <c r="J13" s="127"/>
+      <c r="J13" s="133"/>
       <c r="K13" s="18"/>
       <c r="L13" s="18"/>
       <c r="M13" s="18"/>
@@ -62666,27 +62776,27 @@
     <row r="14" spans="1:28" ht="66.75" customHeight="1">
       <c r="A14" s="80"/>
       <c r="B14" s="80" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C14" s="84" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="85" t="s">
-        <v>73</v>
+      <c r="E14" s="86" t="s">
+        <v>259</v>
       </c>
-      <c r="E14" s="86" t="s">
-        <v>304</v>
+      <c r="F14" s="145" t="s">
+        <v>207</v>
       </c>
-      <c r="F14" s="140" t="s">
-        <v>238</v>
+      <c r="G14" s="127" t="s">
+        <v>74</v>
       </c>
-      <c r="G14" s="152" t="s">
-        <v>75</v>
-      </c>
-      <c r="H14" s="152"/>
+      <c r="H14" s="127"/>
       <c r="I14" s="83"/>
-      <c r="J14" s="125" t="s">
-        <v>238</v>
+      <c r="J14" s="131" t="s">
+        <v>207</v>
       </c>
       <c r="K14" s="18"/>
       <c r="L14" s="18"/>
@@ -62709,25 +62819,25 @@
     </row>
     <row r="15" spans="1:28" ht="66.75" customHeight="1">
       <c r="A15" s="80"/>
-      <c r="B15" s="80" t="s">
-        <v>283</v>
+      <c r="B15" s="183" t="s">
+        <v>241</v>
       </c>
       <c r="C15" s="84" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D15" s="85" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
-      <c r="E15" s="115" t="s">
-        <v>303</v>
+      <c r="E15" s="114" t="s">
+        <v>258</v>
       </c>
-      <c r="F15" s="141"/>
-      <c r="G15" s="152" t="s">
-        <v>286</v>
+      <c r="F15" s="146"/>
+      <c r="G15" s="127" t="s">
+        <v>244</v>
       </c>
-      <c r="H15" s="152"/>
+      <c r="H15" s="127"/>
       <c r="I15" s="83"/>
-      <c r="J15" s="126"/>
+      <c r="J15" s="132"/>
       <c r="K15" s="18"/>
       <c r="L15" s="18"/>
       <c r="M15" s="18"/>
@@ -62749,25 +62859,23 @@
     </row>
     <row r="16" spans="1:28" ht="66.75" customHeight="1">
       <c r="A16" s="80"/>
-      <c r="B16" s="80" t="s">
-        <v>283</v>
+      <c r="B16" s="184"/>
+      <c r="C16" s="84" t="s">
+        <v>248</v>
       </c>
-      <c r="C16" s="84" t="s">
-        <v>290</v>
-      </c>
-      <c r="D16" s="114" t="s">
-        <v>70</v>
+      <c r="D16" s="113" t="s">
+        <v>69</v>
       </c>
       <c r="E16" s="80" t="s">
-        <v>284</v>
+        <v>242</v>
       </c>
-      <c r="F16" s="141"/>
-      <c r="G16" s="173" t="s">
-        <v>292</v>
+      <c r="F16" s="146"/>
+      <c r="G16" s="151" t="s">
+        <v>250</v>
       </c>
-      <c r="H16" s="174"/>
-      <c r="I16" s="116"/>
-      <c r="J16" s="126"/>
+      <c r="H16" s="152"/>
+      <c r="I16" s="115"/>
+      <c r="J16" s="132"/>
       <c r="K16" s="18"/>
       <c r="L16" s="18"/>
       <c r="M16" s="18"/>
@@ -62789,25 +62897,23 @@
     </row>
     <row r="17" spans="1:28" ht="66.75" customHeight="1">
       <c r="A17" s="80"/>
-      <c r="B17" s="80" t="s">
-        <v>283</v>
+      <c r="B17" s="184"/>
+      <c r="C17" s="84" t="s">
+        <v>243</v>
       </c>
-      <c r="C17" s="84" t="s">
-        <v>285</v>
-      </c>
-      <c r="D17" s="114" t="s">
-        <v>70</v>
+      <c r="D17" s="113" t="s">
+        <v>69</v>
       </c>
       <c r="E17" s="80" t="s">
-        <v>287</v>
+        <v>245</v>
       </c>
-      <c r="F17" s="141"/>
-      <c r="G17" s="173" t="s">
-        <v>291</v>
+      <c r="F17" s="146"/>
+      <c r="G17" s="151" t="s">
+        <v>249</v>
       </c>
-      <c r="H17" s="174"/>
-      <c r="I17" s="116"/>
-      <c r="J17" s="126"/>
+      <c r="H17" s="152"/>
+      <c r="I17" s="115"/>
+      <c r="J17" s="132"/>
       <c r="K17" s="18"/>
       <c r="L17" s="18"/>
       <c r="M17" s="18"/>
@@ -62829,25 +62935,23 @@
     </row>
     <row r="18" spans="1:28" ht="66.75" customHeight="1">
       <c r="A18" s="80"/>
-      <c r="B18" s="80" t="s">
-        <v>283</v>
+      <c r="B18" s="185"/>
+      <c r="C18" s="84" t="s">
+        <v>251</v>
       </c>
-      <c r="C18" s="84" t="s">
-        <v>293</v>
-      </c>
-      <c r="D18" s="114" t="s">
-        <v>70</v>
+      <c r="D18" s="113" t="s">
+        <v>69</v>
       </c>
       <c r="E18" s="80" t="s">
-        <v>288</v>
+        <v>246</v>
       </c>
-      <c r="F18" s="141"/>
-      <c r="G18" s="152" t="s">
-        <v>289</v>
+      <c r="F18" s="146"/>
+      <c r="G18" s="127" t="s">
+        <v>247</v>
       </c>
-      <c r="H18" s="152"/>
-      <c r="I18" s="116"/>
-      <c r="J18" s="126"/>
+      <c r="H18" s="127"/>
+      <c r="I18" s="115"/>
+      <c r="J18" s="132"/>
       <c r="K18" s="18"/>
       <c r="L18" s="18"/>
       <c r="M18" s="18"/>
@@ -62870,24 +62974,24 @@
     <row r="19" spans="1:28" ht="66.75" customHeight="1">
       <c r="A19" s="80"/>
       <c r="B19" s="80" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C19" s="84" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="D19" s="85" t="s">
         <v>9</v>
       </c>
       <c r="E19" s="86" t="s">
-        <v>302</v>
+        <v>257</v>
       </c>
-      <c r="F19" s="142"/>
-      <c r="G19" s="152" t="s">
-        <v>294</v>
+      <c r="F19" s="147"/>
+      <c r="G19" s="127" t="s">
+        <v>252</v>
       </c>
-      <c r="H19" s="152"/>
+      <c r="H19" s="127"/>
       <c r="I19" s="83"/>
-      <c r="J19" s="127"/>
+      <c r="J19" s="133"/>
       <c r="K19" s="18"/>
       <c r="L19" s="18"/>
       <c r="M19" s="18"/>
@@ -62908,28 +63012,26 @@
       <c r="AB19" s="18"/>
     </row>
     <row r="20" spans="1:28" ht="26.25" customHeight="1">
-      <c r="A20" s="80">
-        <v>13</v>
-      </c>
-      <c r="B20" s="83" t="s">
-        <v>123</v>
+      <c r="A20" s="80"/>
+      <c r="B20" s="179" t="s">
+        <v>266</v>
       </c>
       <c r="C20" s="87" t="s">
-        <v>163</v>
+        <v>260</v>
       </c>
-      <c r="D20" s="144"/>
-      <c r="E20" s="116" t="s">
-        <v>305</v>
+      <c r="D20" s="149" t="s">
+        <v>270</v>
       </c>
-      <c r="F20" s="161"/>
-      <c r="G20" s="152" t="s">
-        <v>164</v>
+      <c r="E20" s="121" t="s">
+        <v>267</v>
+      </c>
+      <c r="F20" s="116"/>
+      <c r="G20" s="151" t="s">
+        <v>263</v>
       </c>
       <c r="H20" s="152"/>
-      <c r="I20" s="83"/>
-      <c r="J20" s="65" t="s">
-        <v>251</v>
-      </c>
+      <c r="I20" s="118"/>
+      <c r="J20" s="116"/>
       <c r="K20" s="18"/>
       <c r="L20" s="18"/>
       <c r="M20" s="18"/>
@@ -62949,27 +63051,23 @@
       <c r="AA20" s="18"/>
       <c r="AB20" s="18"/>
     </row>
-    <row r="21" spans="1:28" ht="26.25" customHeight="1">
-      <c r="A21" s="80">
-        <v>13</v>
+    <row r="21" spans="1:28" ht="48.75" customHeight="1">
+      <c r="A21" s="80"/>
+      <c r="B21" s="180"/>
+      <c r="C21" s="87" t="s">
+        <v>261</v>
       </c>
-      <c r="B21" s="108" t="s">
-        <v>122</v>
+      <c r="D21" s="149"/>
+      <c r="E21" s="121" t="s">
+        <v>268</v>
       </c>
-      <c r="C21" s="87" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="144"/>
-      <c r="E21" s="175"/>
-      <c r="F21" s="161"/>
-      <c r="G21" s="152" t="s">
-        <v>165</v>
+      <c r="F21" s="116"/>
+      <c r="G21" s="151" t="s">
+        <v>276</v>
       </c>
       <c r="H21" s="152"/>
-      <c r="I21" s="108"/>
-      <c r="J21" s="109" t="s">
-        <v>252</v>
-      </c>
+      <c r="I21" s="118"/>
+      <c r="J21" s="116"/>
       <c r="K21" s="18"/>
       <c r="L21" s="18"/>
       <c r="M21" s="18"/>
@@ -62989,27 +63087,23 @@
       <c r="AA21" s="18"/>
       <c r="AB21" s="18"/>
     </row>
-    <row r="22" spans="1:28" ht="45.75" customHeight="1">
-      <c r="A22" s="80">
-        <v>14</v>
+    <row r="22" spans="1:28" ht="26.25" customHeight="1">
+      <c r="A22" s="80"/>
+      <c r="B22" s="181"/>
+      <c r="C22" s="87" t="s">
+        <v>262</v>
       </c>
-      <c r="B22" s="108" t="s">
-        <v>166</v>
+      <c r="D22" s="150"/>
+      <c r="E22" s="121" t="s">
+        <v>269</v>
       </c>
-      <c r="C22" s="84" t="s">
-        <v>167</v>
-      </c>
-      <c r="D22" s="144"/>
-      <c r="E22" s="175"/>
-      <c r="F22" s="161"/>
-      <c r="G22" s="152" t="s">
-        <v>168</v>
+      <c r="F22" s="116"/>
+      <c r="G22" s="151" t="s">
+        <v>265</v>
       </c>
       <c r="H22" s="152"/>
-      <c r="I22" s="108"/>
-      <c r="J22" s="109" t="s">
-        <v>246</v>
-      </c>
+      <c r="I22" s="118"/>
+      <c r="J22" s="116"/>
       <c r="K22" s="18"/>
       <c r="L22" s="18"/>
       <c r="M22" s="18"/>
@@ -63029,27 +63123,27 @@
       <c r="AA22" s="18"/>
       <c r="AB22" s="18"/>
     </row>
-    <row r="23" spans="1:28" ht="45.75" customHeight="1">
-      <c r="A23" s="80">
-        <v>14</v>
+    <row r="23" spans="1:28" ht="26.25" customHeight="1">
+      <c r="A23" s="80"/>
+      <c r="B23" s="179" t="s">
+        <v>281</v>
       </c>
-      <c r="B23" s="108" t="s">
-        <v>166</v>
+      <c r="C23" s="87" t="s">
+        <v>271</v>
       </c>
-      <c r="C23" s="84" t="s">
-        <v>201</v>
+      <c r="D23" s="148" t="s">
+        <v>280</v>
       </c>
-      <c r="D23" s="144"/>
-      <c r="E23" s="175"/>
-      <c r="F23" s="161"/>
-      <c r="G23" s="152" t="s">
-        <v>202</v>
+      <c r="E23" s="121" t="s">
+        <v>282</v>
+      </c>
+      <c r="F23" s="116"/>
+      <c r="G23" s="151" t="s">
+        <v>275</v>
       </c>
       <c r="H23" s="152"/>
-      <c r="I23" s="108"/>
-      <c r="J23" s="109" t="s">
-        <v>257</v>
-      </c>
+      <c r="I23" s="118"/>
+      <c r="J23" s="116"/>
       <c r="K23" s="18"/>
       <c r="L23" s="18"/>
       <c r="M23" s="18"/>
@@ -63069,27 +63163,23 @@
       <c r="AA23" s="18"/>
       <c r="AB23" s="18"/>
     </row>
-    <row r="24" spans="1:28" ht="26.25" customHeight="1">
-      <c r="A24" s="80">
-        <v>15</v>
+    <row r="24" spans="1:28" ht="46.5" customHeight="1">
+      <c r="A24" s="80"/>
+      <c r="B24" s="180"/>
+      <c r="C24" s="87" t="s">
+        <v>272</v>
       </c>
-      <c r="B24" s="83" t="s">
-        <v>124</v>
+      <c r="D24" s="149"/>
+      <c r="E24" s="121" t="s">
+        <v>283</v>
       </c>
-      <c r="C24" s="87" t="s">
-        <v>170</v>
-      </c>
-      <c r="D24" s="144"/>
-      <c r="E24" s="175"/>
-      <c r="F24" s="161"/>
-      <c r="G24" s="152" t="s">
+      <c r="F24" s="116"/>
+      <c r="G24" s="151" t="s">
         <v>277</v>
       </c>
       <c r="H24" s="152"/>
-      <c r="I24" s="83"/>
-      <c r="J24" s="65" t="s">
-        <v>249</v>
-      </c>
+      <c r="I24" s="118"/>
+      <c r="J24" s="116"/>
       <c r="K24" s="18"/>
       <c r="L24" s="18"/>
       <c r="M24" s="18"/>
@@ -63110,26 +63200,22 @@
       <c r="AB24" s="18"/>
     </row>
     <row r="25" spans="1:28" ht="26.25" customHeight="1">
-      <c r="A25" s="80">
-        <v>15</v>
+      <c r="A25" s="80"/>
+      <c r="B25" s="180"/>
+      <c r="C25" s="87" t="s">
+        <v>273</v>
       </c>
-      <c r="B25" s="108" t="s">
-        <v>122</v>
+      <c r="D25" s="149"/>
+      <c r="E25" s="121" t="s">
+        <v>284</v>
       </c>
-      <c r="C25" s="87" t="s">
-        <v>171</v>
-      </c>
-      <c r="D25" s="144"/>
-      <c r="E25" s="175"/>
-      <c r="F25" s="161"/>
-      <c r="G25" s="152" t="s">
-        <v>172</v>
+      <c r="F25" s="116"/>
+      <c r="G25" s="151" t="s">
+        <v>278</v>
       </c>
       <c r="H25" s="152"/>
-      <c r="I25" s="108"/>
-      <c r="J25" s="109" t="s">
-        <v>250</v>
-      </c>
+      <c r="I25" s="118"/>
+      <c r="J25" s="116"/>
       <c r="K25" s="18"/>
       <c r="L25" s="18"/>
       <c r="M25" s="18"/>
@@ -63150,26 +63236,22 @@
       <c r="AB25" s="18"/>
     </row>
     <row r="26" spans="1:28" ht="26.25" customHeight="1">
-      <c r="A26" s="80">
-        <v>15</v>
+      <c r="A26" s="80"/>
+      <c r="B26" s="181"/>
+      <c r="C26" s="87" t="s">
+        <v>274</v>
       </c>
-      <c r="B26" s="108" t="s">
-        <v>122</v>
+      <c r="D26" s="150"/>
+      <c r="E26" s="121" t="s">
+        <v>285</v>
       </c>
-      <c r="C26" s="87" t="s">
-        <v>203</v>
-      </c>
-      <c r="D26" s="144"/>
-      <c r="E26" s="175"/>
-      <c r="F26" s="161"/>
-      <c r="G26" s="152" t="s">
-        <v>204</v>
+      <c r="F26" s="116"/>
+      <c r="G26" s="151" t="s">
+        <v>279</v>
       </c>
       <c r="H26" s="152"/>
-      <c r="I26" s="108"/>
-      <c r="J26" s="109" t="s">
-        <v>257</v>
-      </c>
+      <c r="I26" s="118"/>
+      <c r="J26" s="116"/>
       <c r="K26" s="18"/>
       <c r="L26" s="18"/>
       <c r="M26" s="18"/>
@@ -63190,26 +63272,26 @@
       <c r="AB26" s="18"/>
     </row>
     <row r="27" spans="1:28" ht="26.25" customHeight="1">
-      <c r="A27" s="80">
-        <v>16</v>
-      </c>
-      <c r="B27" s="83" t="s">
-        <v>124</v>
+      <c r="A27" s="80"/>
+      <c r="B27" s="179" t="s">
+        <v>296</v>
       </c>
       <c r="C27" s="87" t="s">
-        <v>69</v>
+        <v>297</v>
       </c>
-      <c r="D27" s="144"/>
-      <c r="E27" s="175"/>
-      <c r="F27" s="161"/>
-      <c r="G27" s="152" t="s">
-        <v>248</v>
+      <c r="D27" s="148" t="s">
+        <v>280</v>
+      </c>
+      <c r="E27" s="121" t="s">
+        <v>307</v>
+      </c>
+      <c r="F27" s="116"/>
+      <c r="G27" s="151" t="s">
+        <v>302</v>
       </c>
       <c r="H27" s="152"/>
-      <c r="I27" s="83"/>
-      <c r="J27" s="65" t="s">
-        <v>247</v>
-      </c>
+      <c r="I27" s="118"/>
+      <c r="J27" s="116"/>
       <c r="K27" s="18"/>
       <c r="L27" s="18"/>
       <c r="M27" s="18"/>
@@ -63231,23 +63313,21 @@
     </row>
     <row r="28" spans="1:28" ht="26.25" customHeight="1">
       <c r="A28" s="80"/>
-      <c r="B28" s="83" t="s">
-        <v>124</v>
+      <c r="B28" s="180"/>
+      <c r="C28" s="87" t="s">
+        <v>298</v>
       </c>
-      <c r="C28" s="87" t="s">
-        <v>78</v>
+      <c r="D28" s="149"/>
+      <c r="E28" s="121" t="s">
+        <v>308</v>
       </c>
-      <c r="D28" s="144"/>
-      <c r="E28" s="175"/>
-      <c r="F28" s="161"/>
-      <c r="G28" s="152" t="s">
-        <v>79</v>
+      <c r="F28" s="116"/>
+      <c r="G28" s="151" t="s">
+        <v>303</v>
       </c>
       <c r="H28" s="152"/>
-      <c r="I28" s="83"/>
-      <c r="J28" s="65" t="s">
-        <v>256</v>
-      </c>
+      <c r="I28" s="118"/>
+      <c r="J28" s="116"/>
       <c r="K28" s="18"/>
       <c r="L28" s="18"/>
       <c r="M28" s="18"/>
@@ -63269,23 +63349,21 @@
     </row>
     <row r="29" spans="1:28" ht="26.25" customHeight="1">
       <c r="A29" s="80"/>
-      <c r="B29" s="108" t="s">
-        <v>122</v>
+      <c r="B29" s="180"/>
+      <c r="C29" s="87" t="s">
+        <v>299</v>
       </c>
-      <c r="C29" s="87" t="s">
-        <v>173</v>
+      <c r="D29" s="149"/>
+      <c r="E29" s="121" t="s">
+        <v>309</v>
       </c>
-      <c r="D29" s="144"/>
-      <c r="E29" s="175"/>
-      <c r="F29" s="161"/>
-      <c r="G29" s="152" t="s">
-        <v>174</v>
+      <c r="F29" s="116"/>
+      <c r="G29" s="151" t="s">
+        <v>304</v>
       </c>
       <c r="H29" s="152"/>
-      <c r="I29" s="108"/>
-      <c r="J29" s="109" t="s">
-        <v>244</v>
-      </c>
+      <c r="I29" s="118"/>
+      <c r="J29" s="116"/>
       <c r="K29" s="18"/>
       <c r="L29" s="18"/>
       <c r="M29" s="18"/>
@@ -63307,23 +63385,21 @@
     </row>
     <row r="30" spans="1:28" ht="26.25" customHeight="1">
       <c r="A30" s="80"/>
-      <c r="B30" s="108" t="s">
-        <v>122</v>
+      <c r="B30" s="180"/>
+      <c r="C30" s="87" t="s">
+        <v>300</v>
       </c>
-      <c r="C30" s="87" t="s">
-        <v>175</v>
+      <c r="D30" s="149"/>
+      <c r="E30" s="121" t="s">
+        <v>310</v>
       </c>
-      <c r="D30" s="144"/>
-      <c r="E30" s="175"/>
-      <c r="F30" s="161"/>
-      <c r="G30" s="152" t="s">
-        <v>176</v>
+      <c r="F30" s="116"/>
+      <c r="G30" s="151" t="s">
+        <v>305</v>
       </c>
       <c r="H30" s="152"/>
-      <c r="I30" s="108"/>
-      <c r="J30" s="109" t="s">
-        <v>255</v>
-      </c>
+      <c r="I30" s="118"/>
+      <c r="J30" s="116"/>
       <c r="K30" s="18"/>
       <c r="L30" s="18"/>
       <c r="M30" s="18"/>
@@ -63344,26 +63420,22 @@
       <c r="AB30" s="18"/>
     </row>
     <row r="31" spans="1:28" ht="26.25" customHeight="1">
-      <c r="A31" s="80">
-        <v>17</v>
+      <c r="A31" s="80"/>
+      <c r="B31" s="181"/>
+      <c r="C31" s="87" t="s">
+        <v>301</v>
       </c>
-      <c r="B31" s="83" t="s">
-        <v>124</v>
+      <c r="D31" s="150"/>
+      <c r="E31" s="121" t="s">
+        <v>311</v>
       </c>
-      <c r="C31" s="87" t="s">
-        <v>80</v>
-      </c>
-      <c r="D31" s="144"/>
-      <c r="E31" s="175"/>
-      <c r="F31" s="161"/>
-      <c r="G31" s="152" t="s">
-        <v>83</v>
+      <c r="F31" s="116"/>
+      <c r="G31" s="151" t="s">
+        <v>306</v>
       </c>
       <c r="H31" s="152"/>
-      <c r="I31" s="83"/>
-      <c r="J31" s="110" t="s">
-        <v>249</v>
-      </c>
+      <c r="I31" s="118"/>
+      <c r="J31" s="116"/>
       <c r="K31" s="18"/>
       <c r="L31" s="18"/>
       <c r="M31" s="18"/>
@@ -63384,26 +63456,26 @@
       <c r="AB31" s="18"/>
     </row>
     <row r="32" spans="1:28" ht="26.25" customHeight="1">
-      <c r="A32" s="80">
-        <v>17</v>
-      </c>
-      <c r="B32" s="83" t="s">
-        <v>124</v>
+      <c r="A32" s="80"/>
+      <c r="B32" s="182" t="s">
+        <v>312</v>
       </c>
       <c r="C32" s="87" t="s">
-        <v>84</v>
+        <v>313</v>
       </c>
-      <c r="D32" s="144"/>
-      <c r="E32" s="175"/>
-      <c r="F32" s="161"/>
-      <c r="G32" s="152" t="s">
-        <v>85</v>
+      <c r="D32" s="117" t="s">
+        <v>240</v>
+      </c>
+      <c r="E32" s="182" t="s">
+        <v>312</v>
+      </c>
+      <c r="F32" s="116"/>
+      <c r="G32" s="151" t="s">
+        <v>314</v>
       </c>
       <c r="H32" s="152"/>
-      <c r="I32" s="83"/>
-      <c r="J32" s="110" t="s">
-        <v>249</v>
-      </c>
+      <c r="I32" s="118"/>
+      <c r="J32" s="116"/>
       <c r="K32" s="18"/>
       <c r="L32" s="18"/>
       <c r="M32" s="18"/>
@@ -63425,23 +63497,15 @@
     </row>
     <row r="33" spans="1:28" ht="26.25" customHeight="1">
       <c r="A33" s="80"/>
-      <c r="B33" s="83" t="s">
-        <v>124</v>
-      </c>
-      <c r="C33" s="87" t="s">
-        <v>177</v>
-      </c>
-      <c r="D33" s="144"/>
-      <c r="E33" s="175"/>
-      <c r="F33" s="161"/>
-      <c r="G33" s="152" t="s">
-        <v>82</v>
-      </c>
-      <c r="H33" s="152"/>
-      <c r="I33" s="83"/>
-      <c r="J33" s="65" t="s">
-        <v>253</v>
-      </c>
+      <c r="B33" s="182"/>
+      <c r="C33" s="87"/>
+      <c r="D33" s="117"/>
+      <c r="E33" s="182"/>
+      <c r="F33" s="116"/>
+      <c r="G33" s="119"/>
+      <c r="H33" s="120"/>
+      <c r="I33" s="118"/>
+      <c r="J33" s="116"/>
       <c r="K33" s="18"/>
       <c r="L33" s="18"/>
       <c r="M33" s="18"/>
@@ -63466,27 +63530,27 @@
         <v>19</v>
       </c>
       <c r="B34" s="80" t="s">
-        <v>128</v>
+        <v>264</v>
       </c>
       <c r="C34" s="84" t="s">
         <v>33</v>
       </c>
       <c r="D34" s="85" t="s">
-        <v>282</v>
+        <v>240</v>
       </c>
       <c r="E34" s="88" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
-      <c r="F34" s="125" t="s">
-        <v>240</v>
+      <c r="F34" s="131" t="s">
+        <v>209</v>
       </c>
-      <c r="G34" s="152" t="s">
-        <v>275</v>
+      <c r="G34" s="127" t="s">
+        <v>234</v>
       </c>
-      <c r="H34" s="152"/>
+      <c r="H34" s="127"/>
       <c r="I34" s="83"/>
-      <c r="J34" s="125" t="s">
-        <v>254</v>
+      <c r="J34" s="131" t="s">
+        <v>215</v>
       </c>
       <c r="K34" s="18"/>
       <c r="L34" s="18"/>
@@ -63512,24 +63576,24 @@
         <v>21</v>
       </c>
       <c r="B35" s="80" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C35" s="84" t="s">
-        <v>209</v>
+        <v>178</v>
       </c>
-      <c r="D35" s="114" t="s">
-        <v>282</v>
+      <c r="D35" s="113" t="s">
+        <v>240</v>
       </c>
-      <c r="E35" s="128" t="s">
-        <v>130</v>
+      <c r="E35" s="142" t="s">
+        <v>117</v>
       </c>
-      <c r="F35" s="126"/>
-      <c r="G35" s="152" t="s">
-        <v>120</v>
+      <c r="F35" s="132"/>
+      <c r="G35" s="127" t="s">
+        <v>111</v>
       </c>
-      <c r="H35" s="152"/>
+      <c r="H35" s="127"/>
       <c r="I35" s="83"/>
-      <c r="J35" s="126"/>
+      <c r="J35" s="132"/>
       <c r="K35" s="18"/>
       <c r="L35" s="18"/>
       <c r="M35" s="18"/>
@@ -63554,22 +63618,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="80" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C36" s="84" t="s">
-        <v>206</v>
+        <v>175</v>
       </c>
-      <c r="D36" s="114" t="s">
-        <v>282</v>
+      <c r="D36" s="113" t="s">
+        <v>240</v>
       </c>
-      <c r="E36" s="129"/>
-      <c r="F36" s="126"/>
-      <c r="G36" s="152" t="s">
-        <v>207</v>
+      <c r="E36" s="143"/>
+      <c r="F36" s="132"/>
+      <c r="G36" s="127" t="s">
+        <v>176</v>
       </c>
-      <c r="H36" s="152"/>
+      <c r="H36" s="127"/>
       <c r="I36" s="108"/>
-      <c r="J36" s="126"/>
+      <c r="J36" s="132"/>
       <c r="K36" s="18"/>
       <c r="L36" s="18"/>
       <c r="M36" s="18"/>
@@ -63594,22 +63658,22 @@
         <v>21</v>
       </c>
       <c r="B37" s="80" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C37" s="84" t="s">
-        <v>205</v>
+        <v>174</v>
       </c>
-      <c r="D37" s="114" t="s">
-        <v>282</v>
+      <c r="D37" s="113" t="s">
+        <v>240</v>
       </c>
-      <c r="E37" s="130"/>
-      <c r="F37" s="126"/>
-      <c r="G37" s="152" t="s">
-        <v>208</v>
+      <c r="E37" s="144"/>
+      <c r="F37" s="132"/>
+      <c r="G37" s="127" t="s">
+        <v>177</v>
       </c>
-      <c r="H37" s="152"/>
+      <c r="H37" s="127"/>
       <c r="I37" s="108"/>
-      <c r="J37" s="126"/>
+      <c r="J37" s="132"/>
       <c r="K37" s="18"/>
       <c r="L37" s="18"/>
       <c r="M37" s="18"/>
@@ -63634,24 +63698,24 @@
         <v>21</v>
       </c>
       <c r="B38" s="80" t="s">
-        <v>215</v>
+        <v>184</v>
       </c>
       <c r="C38" s="84" t="s">
-        <v>210</v>
+        <v>179</v>
       </c>
-      <c r="D38" s="114" t="s">
-        <v>282</v>
+      <c r="D38" s="113" t="s">
+        <v>240</v>
       </c>
       <c r="E38" s="107" t="s">
-        <v>216</v>
+        <v>185</v>
       </c>
-      <c r="F38" s="127"/>
-      <c r="G38" s="152" t="s">
-        <v>211</v>
+      <c r="F38" s="133"/>
+      <c r="G38" s="127" t="s">
+        <v>180</v>
       </c>
-      <c r="H38" s="152"/>
+      <c r="H38" s="127"/>
       <c r="I38" s="108"/>
-      <c r="J38" s="127"/>
+      <c r="J38" s="133"/>
       <c r="K38" s="18"/>
       <c r="L38" s="18"/>
       <c r="M38" s="18"/>
@@ -63676,27 +63740,27 @@
         <v>23</v>
       </c>
       <c r="B39" s="83" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C39" s="84" t="s">
-        <v>234</v>
+        <v>203</v>
       </c>
-      <c r="D39" s="122" t="s">
-        <v>281</v>
+      <c r="D39" s="148" t="s">
+        <v>239</v>
       </c>
-      <c r="E39" s="128" t="s">
-        <v>132</v>
+      <c r="E39" s="142" t="s">
+        <v>119</v>
       </c>
-      <c r="F39" s="136" t="s">
-        <v>236</v>
+      <c r="F39" s="175" t="s">
+        <v>205</v>
       </c>
-      <c r="G39" s="131" t="s">
-        <v>115</v>
+      <c r="G39" s="159" t="s">
+        <v>106</v>
       </c>
-      <c r="H39" s="131"/>
+      <c r="H39" s="159"/>
       <c r="I39" s="83"/>
       <c r="J39" s="77" t="s">
-        <v>260</v>
+        <v>219</v>
       </c>
       <c r="K39" s="18"/>
       <c r="L39" s="18"/>
@@ -63722,21 +63786,21 @@
         <v>24</v>
       </c>
       <c r="B40" s="83" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C40" s="84" t="s">
-        <v>235</v>
+        <v>204</v>
       </c>
-      <c r="D40" s="123"/>
-      <c r="E40" s="129"/>
-      <c r="F40" s="137"/>
-      <c r="G40" s="134" t="s">
-        <v>185</v>
+      <c r="D40" s="149"/>
+      <c r="E40" s="143"/>
+      <c r="F40" s="176"/>
+      <c r="G40" s="160" t="s">
+        <v>158</v>
       </c>
-      <c r="H40" s="135"/>
+      <c r="H40" s="154"/>
       <c r="I40" s="83"/>
       <c r="J40" s="65" t="s">
-        <v>259</v>
+        <v>218</v>
       </c>
       <c r="K40" s="18"/>
       <c r="L40" s="18"/>
@@ -63762,21 +63826,21 @@
         <v>25</v>
       </c>
       <c r="B41" s="83" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C41" s="84" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
-      <c r="D41" s="123"/>
-      <c r="E41" s="129"/>
-      <c r="F41" s="137"/>
-      <c r="G41" s="134" t="s">
-        <v>229</v>
+      <c r="D41" s="149"/>
+      <c r="E41" s="143"/>
+      <c r="F41" s="176"/>
+      <c r="G41" s="160" t="s">
+        <v>198</v>
       </c>
-      <c r="H41" s="135"/>
+      <c r="H41" s="154"/>
       <c r="I41" s="83"/>
       <c r="J41" s="65" t="s">
-        <v>257</v>
+        <v>216</v>
       </c>
       <c r="K41" s="18"/>
       <c r="L41" s="18"/>
@@ -63802,21 +63866,21 @@
         <v>25</v>
       </c>
       <c r="B42" s="108" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C42" s="84" t="s">
-        <v>230</v>
+        <v>199</v>
       </c>
-      <c r="D42" s="123"/>
-      <c r="E42" s="129"/>
-      <c r="F42" s="137"/>
-      <c r="G42" s="134" t="s">
-        <v>231</v>
+      <c r="D42" s="149"/>
+      <c r="E42" s="143"/>
+      <c r="F42" s="176"/>
+      <c r="G42" s="160" t="s">
+        <v>200</v>
       </c>
-      <c r="H42" s="135"/>
+      <c r="H42" s="154"/>
       <c r="I42" s="108"/>
-      <c r="J42" s="113" t="s">
-        <v>257</v>
+      <c r="J42" s="112" t="s">
+        <v>216</v>
       </c>
       <c r="K42" s="18"/>
       <c r="L42" s="18"/>
@@ -63842,21 +63906,21 @@
         <v>25</v>
       </c>
       <c r="B43" s="108" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C43" s="84" t="s">
-        <v>278</v>
+        <v>236</v>
       </c>
-      <c r="D43" s="123"/>
-      <c r="E43" s="129"/>
-      <c r="F43" s="137"/>
-      <c r="G43" s="132" t="s">
-        <v>232</v>
+      <c r="D43" s="149"/>
+      <c r="E43" s="143"/>
+      <c r="F43" s="176"/>
+      <c r="G43" s="173" t="s">
+        <v>201</v>
       </c>
-      <c r="H43" s="133"/>
+      <c r="H43" s="174"/>
       <c r="I43" s="108"/>
-      <c r="J43" s="113" t="s">
-        <v>257</v>
+      <c r="J43" s="112" t="s">
+        <v>216</v>
       </c>
       <c r="K43" s="18"/>
       <c r="L43" s="18"/>
@@ -63882,21 +63946,21 @@
         <v>26</v>
       </c>
       <c r="B44" s="83" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C44" s="84" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
-      <c r="D44" s="123"/>
-      <c r="E44" s="129"/>
-      <c r="F44" s="137"/>
-      <c r="G44" s="134" t="s">
-        <v>184</v>
+      <c r="D44" s="149"/>
+      <c r="E44" s="143"/>
+      <c r="F44" s="176"/>
+      <c r="G44" s="160" t="s">
+        <v>157</v>
       </c>
-      <c r="H44" s="135"/>
+      <c r="H44" s="154"/>
       <c r="I44" s="83"/>
-      <c r="J44" s="113" t="s">
-        <v>261</v>
+      <c r="J44" s="112" t="s">
+        <v>220</v>
       </c>
       <c r="K44" s="18"/>
       <c r="L44" s="18"/>
@@ -63922,21 +63986,21 @@
         <v>26</v>
       </c>
       <c r="B45" s="108" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C45" s="84" t="s">
-        <v>223</v>
+        <v>192</v>
       </c>
-      <c r="D45" s="123"/>
-      <c r="E45" s="129"/>
-      <c r="F45" s="137"/>
-      <c r="G45" s="134" t="s">
-        <v>224</v>
+      <c r="D45" s="149"/>
+      <c r="E45" s="143"/>
+      <c r="F45" s="176"/>
+      <c r="G45" s="160" t="s">
+        <v>193</v>
       </c>
-      <c r="H45" s="135"/>
+      <c r="H45" s="154"/>
       <c r="I45" s="108"/>
       <c r="J45" s="109" t="s">
-        <v>262</v>
+        <v>221</v>
       </c>
       <c r="K45" s="18"/>
       <c r="L45" s="18"/>
@@ -63962,21 +64026,21 @@
         <v>26</v>
       </c>
       <c r="B46" s="108" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C46" s="84" t="s">
-        <v>233</v>
+        <v>202</v>
       </c>
-      <c r="D46" s="123"/>
-      <c r="E46" s="129"/>
-      <c r="F46" s="137"/>
-      <c r="G46" s="134" t="s">
-        <v>225</v>
+      <c r="D46" s="149"/>
+      <c r="E46" s="143"/>
+      <c r="F46" s="176"/>
+      <c r="G46" s="160" t="s">
+        <v>194</v>
       </c>
-      <c r="H46" s="135"/>
+      <c r="H46" s="154"/>
       <c r="I46" s="108"/>
-      <c r="J46" s="113" t="s">
-        <v>262</v>
+      <c r="J46" s="112" t="s">
+        <v>221</v>
       </c>
       <c r="K46" s="18"/>
       <c r="L46" s="18"/>
@@ -63997,26 +64061,26 @@
       <c r="AA46" s="18"/>
       <c r="AB46" s="18"/>
     </row>
-    <row r="47" spans="1:28" s="112" customFormat="1" ht="26.25" customHeight="1">
+    <row r="47" spans="1:28" s="111" customFormat="1" ht="26.25" customHeight="1">
       <c r="A47" s="80" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="B47" s="108" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C47" s="84" t="s">
-        <v>226</v>
+        <v>195</v>
       </c>
-      <c r="D47" s="123"/>
-      <c r="E47" s="129"/>
-      <c r="F47" s="137"/>
-      <c r="G47" s="131" t="s">
-        <v>116</v>
+      <c r="D47" s="149"/>
+      <c r="E47" s="143"/>
+      <c r="F47" s="176"/>
+      <c r="G47" s="159" t="s">
+        <v>107</v>
       </c>
-      <c r="H47" s="131"/>
+      <c r="H47" s="159"/>
       <c r="I47" s="108"/>
       <c r="J47" s="109" t="s">
-        <v>263</v>
+        <v>222</v>
       </c>
       <c r="K47" s="55"/>
       <c r="L47" s="55"/>
@@ -64037,24 +64101,24 @@
       <c r="AA47" s="55"/>
       <c r="AB47" s="55"/>
     </row>
-    <row r="48" spans="1:28" s="112" customFormat="1" ht="26.25" customHeight="1">
+    <row r="48" spans="1:28" s="111" customFormat="1" ht="26.25" customHeight="1">
       <c r="A48" s="80"/>
       <c r="B48" s="108" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C48" s="84" t="s">
-        <v>227</v>
+        <v>196</v>
       </c>
-      <c r="D48" s="123"/>
-      <c r="E48" s="129"/>
-      <c r="F48" s="137"/>
-      <c r="G48" s="132" t="s">
-        <v>228</v>
+      <c r="D48" s="149"/>
+      <c r="E48" s="143"/>
+      <c r="F48" s="176"/>
+      <c r="G48" s="173" t="s">
+        <v>197</v>
       </c>
-      <c r="H48" s="133"/>
+      <c r="H48" s="174"/>
       <c r="I48" s="108"/>
       <c r="J48" s="109" t="s">
-        <v>264</v>
+        <v>223</v>
       </c>
       <c r="K48" s="55"/>
       <c r="L48" s="55"/>
@@ -64080,21 +64144,21 @@
         <v>27</v>
       </c>
       <c r="B49" s="108" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C49" s="84" t="s">
-        <v>217</v>
+        <v>186</v>
       </c>
-      <c r="D49" s="123"/>
-      <c r="E49" s="129"/>
-      <c r="F49" s="137"/>
-      <c r="G49" s="131" t="s">
-        <v>218</v>
+      <c r="D49" s="149"/>
+      <c r="E49" s="143"/>
+      <c r="F49" s="176"/>
+      <c r="G49" s="159" t="s">
+        <v>187</v>
       </c>
-      <c r="H49" s="131"/>
+      <c r="H49" s="159"/>
       <c r="I49" s="108"/>
       <c r="J49" s="109" t="s">
-        <v>265</v>
+        <v>224</v>
       </c>
       <c r="K49" s="55"/>
       <c r="L49" s="55"/>
@@ -64120,21 +64184,21 @@
         <v>27</v>
       </c>
       <c r="B50" s="108" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C50" s="84" t="s">
-        <v>219</v>
+        <v>188</v>
       </c>
-      <c r="D50" s="123"/>
-      <c r="E50" s="129"/>
-      <c r="F50" s="137"/>
-      <c r="G50" s="131" t="s">
-        <v>220</v>
+      <c r="D50" s="149"/>
+      <c r="E50" s="143"/>
+      <c r="F50" s="176"/>
+      <c r="G50" s="159" t="s">
+        <v>189</v>
       </c>
-      <c r="H50" s="131"/>
+      <c r="H50" s="159"/>
       <c r="I50" s="108"/>
-      <c r="J50" s="113" t="s">
-        <v>265</v>
+      <c r="J50" s="112" t="s">
+        <v>224</v>
       </c>
       <c r="K50" s="55"/>
       <c r="L50" s="55"/>
@@ -64158,21 +64222,21 @@
     <row r="51" spans="1:28" s="51" customFormat="1" ht="26.25" customHeight="1">
       <c r="A51" s="80"/>
       <c r="B51" s="108" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C51" s="84" t="s">
-        <v>221</v>
+        <v>190</v>
       </c>
-      <c r="D51" s="123"/>
-      <c r="E51" s="129"/>
-      <c r="F51" s="137"/>
-      <c r="G51" s="132" t="s">
-        <v>222</v>
+      <c r="D51" s="149"/>
+      <c r="E51" s="143"/>
+      <c r="F51" s="176"/>
+      <c r="G51" s="173" t="s">
+        <v>191</v>
       </c>
-      <c r="H51" s="133"/>
+      <c r="H51" s="174"/>
       <c r="I51" s="108"/>
-      <c r="J51" s="113" t="s">
-        <v>265</v>
+      <c r="J51" s="112" t="s">
+        <v>224</v>
       </c>
       <c r="K51" s="55"/>
       <c r="L51" s="55"/>
@@ -64198,21 +64262,21 @@
         <v>28</v>
       </c>
       <c r="B52" s="83" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C52" s="84" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
-      <c r="D52" s="123"/>
-      <c r="E52" s="129"/>
-      <c r="F52" s="137"/>
-      <c r="G52" s="131" t="s">
-        <v>279</v>
+      <c r="D52" s="149"/>
+      <c r="E52" s="143"/>
+      <c r="F52" s="176"/>
+      <c r="G52" s="159" t="s">
+        <v>237</v>
       </c>
-      <c r="H52" s="131"/>
+      <c r="H52" s="159"/>
       <c r="I52" s="83"/>
       <c r="J52" s="65" t="s">
-        <v>266</v>
+        <v>225</v>
       </c>
       <c r="K52" s="55"/>
       <c r="L52" s="55"/>
@@ -64238,21 +64302,21 @@
         <v>29</v>
       </c>
       <c r="B53" s="83" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C53" s="84" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
-      <c r="D53" s="123"/>
-      <c r="E53" s="129"/>
-      <c r="F53" s="137"/>
-      <c r="G53" s="134" t="s">
-        <v>111</v>
+      <c r="D53" s="149"/>
+      <c r="E53" s="143"/>
+      <c r="F53" s="176"/>
+      <c r="G53" s="160" t="s">
+        <v>102</v>
       </c>
-      <c r="H53" s="135"/>
+      <c r="H53" s="154"/>
       <c r="I53" s="83"/>
       <c r="J53" s="65" t="s">
-        <v>236</v>
+        <v>205</v>
       </c>
       <c r="K53" s="55"/>
       <c r="L53" s="55"/>
@@ -64278,21 +64342,21 @@
         <v>29</v>
       </c>
       <c r="B54" s="108" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C54" s="84" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
-      <c r="D54" s="123"/>
-      <c r="E54" s="129"/>
-      <c r="F54" s="137"/>
-      <c r="G54" s="134" t="s">
-        <v>179</v>
+      <c r="D54" s="149"/>
+      <c r="E54" s="143"/>
+      <c r="F54" s="176"/>
+      <c r="G54" s="160" t="s">
+        <v>152</v>
       </c>
-      <c r="H54" s="135"/>
+      <c r="H54" s="154"/>
       <c r="I54" s="108"/>
       <c r="J54" s="109" t="s">
-        <v>268</v>
+        <v>227</v>
       </c>
       <c r="K54" s="55"/>
       <c r="L54" s="55"/>
@@ -64318,21 +64382,21 @@
         <v>29</v>
       </c>
       <c r="B55" s="108" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C55" s="84" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
-      <c r="D55" s="123"/>
-      <c r="E55" s="129"/>
-      <c r="F55" s="137"/>
-      <c r="G55" s="134" t="s">
-        <v>181</v>
+      <c r="D55" s="149"/>
+      <c r="E55" s="143"/>
+      <c r="F55" s="176"/>
+      <c r="G55" s="160" t="s">
+        <v>154</v>
       </c>
-      <c r="H55" s="135"/>
+      <c r="H55" s="154"/>
       <c r="I55" s="108"/>
-      <c r="J55" s="113" t="s">
-        <v>268</v>
+      <c r="J55" s="112" t="s">
+        <v>227</v>
       </c>
       <c r="K55" s="55"/>
       <c r="L55" s="55"/>
@@ -64358,21 +64422,21 @@
         <v>29</v>
       </c>
       <c r="B56" s="108" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C56" s="84" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
-      <c r="D56" s="123"/>
-      <c r="E56" s="129"/>
-      <c r="F56" s="137"/>
-      <c r="G56" s="134" t="s">
-        <v>183</v>
+      <c r="D56" s="149"/>
+      <c r="E56" s="143"/>
+      <c r="F56" s="176"/>
+      <c r="G56" s="160" t="s">
+        <v>156</v>
       </c>
-      <c r="H56" s="135"/>
+      <c r="H56" s="154"/>
       <c r="I56" s="108"/>
-      <c r="J56" s="113" t="s">
-        <v>268</v>
+      <c r="J56" s="112" t="s">
+        <v>227</v>
       </c>
       <c r="K56" s="55"/>
       <c r="L56" s="55"/>
@@ -64398,21 +64462,21 @@
         <v>29</v>
       </c>
       <c r="B57" s="108" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C57" s="84" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
-      <c r="D57" s="124"/>
-      <c r="E57" s="130"/>
-      <c r="F57" s="138"/>
-      <c r="G57" s="134" t="s">
-        <v>111</v>
+      <c r="D57" s="150"/>
+      <c r="E57" s="144"/>
+      <c r="F57" s="177"/>
+      <c r="G57" s="160" t="s">
+        <v>102</v>
       </c>
-      <c r="H57" s="135"/>
+      <c r="H57" s="154"/>
       <c r="I57" s="108"/>
       <c r="J57" s="109" t="s">
-        <v>258</v>
+        <v>217</v>
       </c>
       <c r="K57" s="55"/>
       <c r="L57" s="55"/>
@@ -64438,27 +64502,27 @@
         <v>30</v>
       </c>
       <c r="B58" s="89" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C58" s="87" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
-      <c r="D58" s="122" t="s">
-        <v>281</v>
-      </c>
-      <c r="E58" s="145" t="s">
-        <v>158</v>
-      </c>
-      <c r="F58" s="140" t="s">
+      <c r="D58" s="148" t="s">
         <v>239</v>
       </c>
-      <c r="G58" s="135" t="s">
-        <v>200</v>
+      <c r="E58" s="164" t="s">
+        <v>145</v>
       </c>
-      <c r="H58" s="131"/>
+      <c r="F58" s="145" t="s">
+        <v>208</v>
+      </c>
+      <c r="G58" s="154" t="s">
+        <v>173</v>
+      </c>
+      <c r="H58" s="159"/>
       <c r="I58" s="90"/>
-      <c r="J58" s="140" t="s">
-        <v>267</v>
+      <c r="J58" s="145" t="s">
+        <v>226</v>
       </c>
       <c r="K58" s="18"/>
       <c r="L58" s="18"/>
@@ -64484,20 +64548,20 @@
         <v>31</v>
       </c>
       <c r="B59" s="89" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C59" s="87" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
-      <c r="D59" s="123"/>
-      <c r="E59" s="145"/>
-      <c r="F59" s="141"/>
-      <c r="G59" s="135" t="s">
-        <v>199</v>
+      <c r="D59" s="149"/>
+      <c r="E59" s="164"/>
+      <c r="F59" s="146"/>
+      <c r="G59" s="154" t="s">
+        <v>172</v>
       </c>
-      <c r="H59" s="131"/>
+      <c r="H59" s="159"/>
       <c r="I59" s="90"/>
-      <c r="J59" s="141"/>
+      <c r="J59" s="146"/>
       <c r="K59" s="18"/>
       <c r="L59" s="18"/>
       <c r="M59" s="18"/>
@@ -64522,20 +64586,20 @@
         <v>32</v>
       </c>
       <c r="B60" s="89" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="C60" s="87" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
-      <c r="D60" s="123"/>
-      <c r="E60" s="145"/>
-      <c r="F60" s="141"/>
-      <c r="G60" s="135" t="s">
-        <v>198</v>
+      <c r="D60" s="149"/>
+      <c r="E60" s="164"/>
+      <c r="F60" s="146"/>
+      <c r="G60" s="154" t="s">
+        <v>171</v>
       </c>
-      <c r="H60" s="131"/>
+      <c r="H60" s="159"/>
       <c r="I60" s="90"/>
-      <c r="J60" s="141"/>
+      <c r="J60" s="146"/>
       <c r="K60" s="18"/>
       <c r="L60" s="18"/>
       <c r="M60" s="18"/>
@@ -64560,20 +64624,20 @@
         <v>33</v>
       </c>
       <c r="B61" s="89" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="C61" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="D61" s="123"/>
-      <c r="E61" s="145"/>
-      <c r="F61" s="141"/>
-      <c r="G61" s="157" t="s">
-        <v>197</v>
+      <c r="D61" s="149"/>
+      <c r="E61" s="164"/>
+      <c r="F61" s="146"/>
+      <c r="G61" s="153" t="s">
+        <v>170</v>
       </c>
-      <c r="H61" s="135"/>
+      <c r="H61" s="154"/>
       <c r="I61" s="90"/>
-      <c r="J61" s="141"/>
+      <c r="J61" s="146"/>
       <c r="K61" s="18"/>
       <c r="L61" s="18"/>
       <c r="M61" s="18"/>
@@ -64598,20 +64662,20 @@
         <v>34</v>
       </c>
       <c r="B62" s="89" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C62" s="87" t="s">
         <v>49</v>
       </c>
-      <c r="D62" s="123"/>
-      <c r="E62" s="145"/>
-      <c r="F62" s="141"/>
-      <c r="G62" s="157" t="s">
-        <v>196</v>
+      <c r="D62" s="149"/>
+      <c r="E62" s="164"/>
+      <c r="F62" s="146"/>
+      <c r="G62" s="153" t="s">
+        <v>169</v>
       </c>
-      <c r="H62" s="135"/>
+      <c r="H62" s="154"/>
       <c r="I62" s="90"/>
-      <c r="J62" s="141"/>
+      <c r="J62" s="146"/>
       <c r="K62" s="18"/>
       <c r="L62" s="18"/>
       <c r="M62" s="18"/>
@@ -64636,20 +64700,20 @@
         <v>35</v>
       </c>
       <c r="B63" s="89" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="C63" s="87" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
-      <c r="D63" s="123"/>
-      <c r="E63" s="145"/>
-      <c r="F63" s="141"/>
-      <c r="G63" s="157" t="s">
-        <v>195</v>
+      <c r="D63" s="149"/>
+      <c r="E63" s="164"/>
+      <c r="F63" s="146"/>
+      <c r="G63" s="153" t="s">
+        <v>168</v>
       </c>
-      <c r="H63" s="135"/>
+      <c r="H63" s="154"/>
       <c r="I63" s="90"/>
-      <c r="J63" s="141"/>
+      <c r="J63" s="146"/>
       <c r="K63" s="18"/>
       <c r="L63" s="18"/>
       <c r="M63" s="18"/>
@@ -64674,20 +64738,20 @@
         <v>37</v>
       </c>
       <c r="B64" s="89" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="C64" s="87" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
-      <c r="D64" s="123"/>
-      <c r="E64" s="145"/>
-      <c r="F64" s="141"/>
-      <c r="G64" s="157" t="s">
-        <v>193</v>
+      <c r="D64" s="149"/>
+      <c r="E64" s="164"/>
+      <c r="F64" s="146"/>
+      <c r="G64" s="153" t="s">
+        <v>166</v>
       </c>
-      <c r="H64" s="135"/>
+      <c r="H64" s="154"/>
       <c r="I64" s="83"/>
-      <c r="J64" s="141"/>
+      <c r="J64" s="146"/>
       <c r="K64" s="18"/>
       <c r="L64" s="18"/>
       <c r="M64" s="18"/>
@@ -64712,20 +64776,20 @@
         <v>38</v>
       </c>
       <c r="B65" s="89" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="C65" s="87" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
-      <c r="D65" s="123"/>
-      <c r="E65" s="145"/>
-      <c r="F65" s="141"/>
-      <c r="G65" s="157" t="s">
-        <v>192</v>
+      <c r="D65" s="149"/>
+      <c r="E65" s="164"/>
+      <c r="F65" s="146"/>
+      <c r="G65" s="153" t="s">
+        <v>165</v>
       </c>
-      <c r="H65" s="135"/>
+      <c r="H65" s="154"/>
       <c r="I65" s="83"/>
-      <c r="J65" s="141"/>
+      <c r="J65" s="146"/>
       <c r="K65" s="18"/>
       <c r="L65" s="18"/>
       <c r="M65" s="18"/>
@@ -64750,20 +64814,20 @@
         <v>39</v>
       </c>
       <c r="B66" s="89" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="C66" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="D66" s="123"/>
-      <c r="E66" s="145"/>
-      <c r="F66" s="141"/>
-      <c r="G66" s="157" t="s">
-        <v>191</v>
+      <c r="D66" s="149"/>
+      <c r="E66" s="164"/>
+      <c r="F66" s="146"/>
+      <c r="G66" s="153" t="s">
+        <v>164</v>
       </c>
-      <c r="H66" s="135"/>
+      <c r="H66" s="154"/>
       <c r="I66" s="83"/>
-      <c r="J66" s="141"/>
+      <c r="J66" s="146"/>
       <c r="K66" s="34"/>
       <c r="L66" s="34"/>
       <c r="M66" s="18"/>
@@ -64788,20 +64852,20 @@
         <v>40</v>
       </c>
       <c r="B67" s="89" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="C67" s="87" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
-      <c r="D67" s="123"/>
-      <c r="E67" s="145"/>
-      <c r="F67" s="141"/>
-      <c r="G67" s="157" t="s">
-        <v>190</v>
+      <c r="D67" s="149"/>
+      <c r="E67" s="164"/>
+      <c r="F67" s="146"/>
+      <c r="G67" s="153" t="s">
+        <v>163</v>
       </c>
-      <c r="H67" s="135"/>
+      <c r="H67" s="154"/>
       <c r="I67" s="83"/>
-      <c r="J67" s="141"/>
+      <c r="J67" s="146"/>
       <c r="K67" s="34"/>
       <c r="L67" s="34"/>
       <c r="M67" s="18"/>
@@ -64826,20 +64890,20 @@
         <v>41</v>
       </c>
       <c r="B68" s="89" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="C68" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="D68" s="123"/>
-      <c r="E68" s="145"/>
-      <c r="F68" s="141"/>
-      <c r="G68" s="157" t="s">
+      <c r="D68" s="149"/>
+      <c r="E68" s="164"/>
+      <c r="F68" s="146"/>
+      <c r="G68" s="153" t="s">
         <v>54</v>
       </c>
-      <c r="H68" s="135"/>
+      <c r="H68" s="154"/>
       <c r="I68" s="83"/>
-      <c r="J68" s="141"/>
+      <c r="J68" s="146"/>
       <c r="K68" s="34"/>
       <c r="L68" s="34"/>
       <c r="M68" s="18"/>
@@ -64864,20 +64928,20 @@
         <v>42</v>
       </c>
       <c r="B69" s="89" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="C69" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="D69" s="124"/>
-      <c r="E69" s="145"/>
-      <c r="F69" s="141"/>
-      <c r="G69" s="157" t="s">
-        <v>189</v>
+      <c r="D69" s="150"/>
+      <c r="E69" s="164"/>
+      <c r="F69" s="146"/>
+      <c r="G69" s="153" t="s">
+        <v>162</v>
       </c>
-      <c r="H69" s="135"/>
+      <c r="H69" s="154"/>
       <c r="I69" s="83"/>
-      <c r="J69" s="141"/>
+      <c r="J69" s="146"/>
       <c r="K69" s="34"/>
       <c r="L69" s="34"/>
       <c r="M69" s="18"/>
@@ -64902,24 +64966,24 @@
         <v>43</v>
       </c>
       <c r="B70" s="80" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="C70" s="87" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
-      <c r="D70" s="122" t="s">
-        <v>281</v>
+      <c r="D70" s="148" t="s">
+        <v>239</v>
       </c>
-      <c r="E70" s="145" t="s">
-        <v>280</v>
+      <c r="E70" s="164" t="s">
+        <v>238</v>
       </c>
-      <c r="F70" s="141"/>
-      <c r="G70" s="135" t="s">
-        <v>200</v>
+      <c r="F70" s="146"/>
+      <c r="G70" s="154" t="s">
+        <v>173</v>
       </c>
-      <c r="H70" s="131"/>
+      <c r="H70" s="159"/>
       <c r="I70" s="83"/>
-      <c r="J70" s="141"/>
+      <c r="J70" s="146"/>
       <c r="K70" s="34"/>
       <c r="L70" s="34"/>
       <c r="M70" s="18"/>
@@ -64944,20 +65008,20 @@
         <v>44</v>
       </c>
       <c r="B71" s="80" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="C71" s="87" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
-      <c r="D71" s="123"/>
-      <c r="E71" s="145"/>
-      <c r="F71" s="141"/>
-      <c r="G71" s="135" t="s">
-        <v>199</v>
+      <c r="D71" s="149"/>
+      <c r="E71" s="164"/>
+      <c r="F71" s="146"/>
+      <c r="G71" s="154" t="s">
+        <v>172</v>
       </c>
-      <c r="H71" s="131"/>
+      <c r="H71" s="159"/>
       <c r="I71" s="83"/>
-      <c r="J71" s="141"/>
+      <c r="J71" s="146"/>
       <c r="K71" s="18"/>
       <c r="L71" s="18"/>
       <c r="M71" s="18"/>
@@ -64982,20 +65046,20 @@
         <v>45</v>
       </c>
       <c r="B72" s="80" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="C72" s="87" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
-      <c r="D72" s="123"/>
-      <c r="E72" s="145"/>
-      <c r="F72" s="141"/>
-      <c r="G72" s="135" t="s">
-        <v>198</v>
+      <c r="D72" s="149"/>
+      <c r="E72" s="164"/>
+      <c r="F72" s="146"/>
+      <c r="G72" s="154" t="s">
+        <v>171</v>
       </c>
-      <c r="H72" s="131"/>
+      <c r="H72" s="159"/>
       <c r="I72" s="83"/>
-      <c r="J72" s="141"/>
+      <c r="J72" s="146"/>
       <c r="K72" s="18"/>
       <c r="L72" s="18"/>
       <c r="M72" s="18"/>
@@ -65020,20 +65084,20 @@
         <v>46</v>
       </c>
       <c r="B73" s="80" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="C73" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="D73" s="123"/>
-      <c r="E73" s="145"/>
-      <c r="F73" s="141"/>
-      <c r="G73" s="157" t="s">
-        <v>197</v>
+      <c r="D73" s="149"/>
+      <c r="E73" s="164"/>
+      <c r="F73" s="146"/>
+      <c r="G73" s="153" t="s">
+        <v>170</v>
       </c>
-      <c r="H73" s="135"/>
+      <c r="H73" s="154"/>
       <c r="I73" s="83"/>
-      <c r="J73" s="141"/>
+      <c r="J73" s="146"/>
       <c r="K73" s="18"/>
       <c r="L73" s="18"/>
       <c r="M73" s="18"/>
@@ -65058,20 +65122,20 @@
         <v>47</v>
       </c>
       <c r="B74" s="80" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="C74" s="87" t="s">
         <v>49</v>
       </c>
-      <c r="D74" s="123"/>
-      <c r="E74" s="145"/>
-      <c r="F74" s="141"/>
-      <c r="G74" s="157" t="s">
-        <v>196</v>
+      <c r="D74" s="149"/>
+      <c r="E74" s="164"/>
+      <c r="F74" s="146"/>
+      <c r="G74" s="153" t="s">
+        <v>169</v>
       </c>
-      <c r="H74" s="135"/>
+      <c r="H74" s="154"/>
       <c r="I74" s="83"/>
-      <c r="J74" s="141"/>
+      <c r="J74" s="146"/>
       <c r="K74" s="18"/>
       <c r="L74" s="18"/>
       <c r="M74" s="18"/>
@@ -65096,20 +65160,20 @@
         <v>48</v>
       </c>
       <c r="B75" s="80" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="C75" s="87" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
-      <c r="D75" s="123"/>
-      <c r="E75" s="145"/>
-      <c r="F75" s="141"/>
-      <c r="G75" s="157" t="s">
-        <v>195</v>
+      <c r="D75" s="149"/>
+      <c r="E75" s="164"/>
+      <c r="F75" s="146"/>
+      <c r="G75" s="153" t="s">
+        <v>168</v>
       </c>
-      <c r="H75" s="135"/>
+      <c r="H75" s="154"/>
       <c r="I75" s="83"/>
-      <c r="J75" s="141"/>
+      <c r="J75" s="146"/>
       <c r="K75" s="18"/>
       <c r="L75" s="18"/>
       <c r="M75" s="18"/>
@@ -65134,20 +65198,20 @@
         <v>49</v>
       </c>
       <c r="B76" s="80" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="C76" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="D76" s="123"/>
-      <c r="E76" s="145"/>
-      <c r="F76" s="141"/>
-      <c r="G76" s="157" t="s">
-        <v>194</v>
+      <c r="D76" s="149"/>
+      <c r="E76" s="164"/>
+      <c r="F76" s="146"/>
+      <c r="G76" s="153" t="s">
+        <v>167</v>
       </c>
-      <c r="H76" s="135"/>
+      <c r="H76" s="154"/>
       <c r="I76" s="83"/>
-      <c r="J76" s="141"/>
+      <c r="J76" s="146"/>
       <c r="K76" s="18"/>
       <c r="L76" s="18"/>
       <c r="M76" s="18"/>
@@ -65172,20 +65236,20 @@
         <v>50</v>
       </c>
       <c r="B77" s="80" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="C77" s="87" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
-      <c r="D77" s="123"/>
-      <c r="E77" s="145"/>
-      <c r="F77" s="141"/>
-      <c r="G77" s="157" t="s">
-        <v>193</v>
+      <c r="D77" s="149"/>
+      <c r="E77" s="164"/>
+      <c r="F77" s="146"/>
+      <c r="G77" s="153" t="s">
+        <v>166</v>
       </c>
-      <c r="H77" s="135"/>
+      <c r="H77" s="154"/>
       <c r="I77" s="83"/>
-      <c r="J77" s="141"/>
+      <c r="J77" s="146"/>
       <c r="K77" s="18"/>
       <c r="L77" s="18"/>
       <c r="M77" s="18"/>
@@ -65210,20 +65274,20 @@
         <v>51</v>
       </c>
       <c r="B78" s="80" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="C78" s="87" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
-      <c r="D78" s="123"/>
-      <c r="E78" s="145"/>
-      <c r="F78" s="141"/>
-      <c r="G78" s="157" t="s">
-        <v>192</v>
+      <c r="D78" s="149"/>
+      <c r="E78" s="164"/>
+      <c r="F78" s="146"/>
+      <c r="G78" s="153" t="s">
+        <v>165</v>
       </c>
-      <c r="H78" s="135"/>
+      <c r="H78" s="154"/>
       <c r="I78" s="83"/>
-      <c r="J78" s="141"/>
+      <c r="J78" s="146"/>
       <c r="K78" s="18"/>
       <c r="L78" s="18"/>
       <c r="M78" s="18"/>
@@ -65248,20 +65312,20 @@
         <v>52</v>
       </c>
       <c r="B79" s="80" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="C79" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="D79" s="123"/>
-      <c r="E79" s="145"/>
-      <c r="F79" s="141"/>
-      <c r="G79" s="157" t="s">
-        <v>191</v>
+      <c r="D79" s="149"/>
+      <c r="E79" s="164"/>
+      <c r="F79" s="146"/>
+      <c r="G79" s="153" t="s">
+        <v>164</v>
       </c>
-      <c r="H79" s="135"/>
+      <c r="H79" s="154"/>
       <c r="I79" s="83"/>
-      <c r="J79" s="141"/>
+      <c r="J79" s="146"/>
       <c r="K79" s="18"/>
       <c r="L79" s="18"/>
       <c r="M79" s="18"/>
@@ -65286,20 +65350,20 @@
         <v>53</v>
       </c>
       <c r="B80" s="80" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="C80" s="87" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
-      <c r="D80" s="123"/>
-      <c r="E80" s="145"/>
-      <c r="F80" s="141"/>
-      <c r="G80" s="157" t="s">
-        <v>190</v>
+      <c r="D80" s="149"/>
+      <c r="E80" s="164"/>
+      <c r="F80" s="146"/>
+      <c r="G80" s="153" t="s">
+        <v>163</v>
       </c>
-      <c r="H80" s="135"/>
+      <c r="H80" s="154"/>
       <c r="I80" s="83"/>
-      <c r="J80" s="141"/>
+      <c r="J80" s="146"/>
       <c r="K80" s="18"/>
       <c r="L80" s="18"/>
       <c r="M80" s="18"/>
@@ -65324,20 +65388,20 @@
         <v>54</v>
       </c>
       <c r="B81" s="80" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="C81" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="D81" s="123"/>
-      <c r="E81" s="145"/>
-      <c r="F81" s="141"/>
-      <c r="G81" s="157" t="s">
+      <c r="D81" s="149"/>
+      <c r="E81" s="164"/>
+      <c r="F81" s="146"/>
+      <c r="G81" s="153" t="s">
         <v>54</v>
       </c>
-      <c r="H81" s="135"/>
+      <c r="H81" s="154"/>
       <c r="I81" s="83"/>
-      <c r="J81" s="141"/>
+      <c r="J81" s="146"/>
       <c r="K81" s="18"/>
       <c r="L81" s="18"/>
       <c r="M81" s="18"/>
@@ -65362,20 +65426,20 @@
         <v>55</v>
       </c>
       <c r="B82" s="80" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="C82" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="D82" s="124"/>
-      <c r="E82" s="145"/>
-      <c r="F82" s="142"/>
-      <c r="G82" s="157" t="s">
-        <v>189</v>
+      <c r="D82" s="150"/>
+      <c r="E82" s="164"/>
+      <c r="F82" s="147"/>
+      <c r="G82" s="153" t="s">
+        <v>162</v>
       </c>
-      <c r="H82" s="135"/>
+      <c r="H82" s="154"/>
       <c r="I82" s="83"/>
-      <c r="J82" s="142"/>
+      <c r="J82" s="147"/>
       <c r="K82" s="18"/>
       <c r="L82" s="18"/>
       <c r="M82" s="18"/>
@@ -65400,27 +65464,27 @@
         <v>56</v>
       </c>
       <c r="B83" s="83" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="C83" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="D83" s="144" t="s">
-        <v>109</v>
+      <c r="D83" s="141" t="s">
+        <v>100</v>
       </c>
-      <c r="E83" s="145" t="s">
-        <v>159</v>
+      <c r="E83" s="164" t="s">
+        <v>146</v>
       </c>
-      <c r="F83" s="139" t="s">
-        <v>237</v>
+      <c r="F83" s="178" t="s">
+        <v>206</v>
       </c>
-      <c r="G83" s="135" t="s">
+      <c r="G83" s="154" t="s">
         <v>52</v>
       </c>
-      <c r="H83" s="131"/>
+      <c r="H83" s="159"/>
       <c r="I83" s="83"/>
-      <c r="J83" s="125" t="s">
-        <v>269</v>
+      <c r="J83" s="131" t="s">
+        <v>228</v>
       </c>
       <c r="K83" s="18"/>
       <c r="L83" s="18"/>
@@ -65446,20 +65510,20 @@
         <v>57</v>
       </c>
       <c r="B84" s="83" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="C84" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="D84" s="144"/>
-      <c r="E84" s="145"/>
-      <c r="F84" s="139"/>
-      <c r="G84" s="153" t="s">
+      <c r="D84" s="141"/>
+      <c r="E84" s="164"/>
+      <c r="F84" s="178"/>
+      <c r="G84" s="170" t="s">
         <v>58</v>
       </c>
-      <c r="H84" s="154"/>
+      <c r="H84" s="171"/>
       <c r="I84" s="83"/>
-      <c r="J84" s="126"/>
+      <c r="J84" s="132"/>
       <c r="K84" s="18"/>
       <c r="L84" s="18"/>
       <c r="M84" s="18"/>
@@ -65484,20 +65548,20 @@
         <v>58</v>
       </c>
       <c r="B85" s="83" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="C85" s="89" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
-      <c r="D85" s="144"/>
-      <c r="E85" s="145"/>
-      <c r="F85" s="139"/>
-      <c r="G85" s="135" t="s">
-        <v>113</v>
+      <c r="D85" s="141"/>
+      <c r="E85" s="164"/>
+      <c r="F85" s="178"/>
+      <c r="G85" s="154" t="s">
+        <v>104</v>
       </c>
-      <c r="H85" s="131"/>
+      <c r="H85" s="159"/>
       <c r="I85" s="83"/>
-      <c r="J85" s="126"/>
+      <c r="J85" s="132"/>
       <c r="K85" s="18"/>
       <c r="L85" s="18"/>
       <c r="M85" s="18"/>
@@ -65522,20 +65586,20 @@
         <v>59</v>
       </c>
       <c r="B86" s="83" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="C86" s="87" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
-      <c r="D86" s="144"/>
-      <c r="E86" s="145"/>
-      <c r="F86" s="139"/>
-      <c r="G86" s="135" t="s">
-        <v>114</v>
+      <c r="D86" s="141"/>
+      <c r="E86" s="164"/>
+      <c r="F86" s="178"/>
+      <c r="G86" s="154" t="s">
+        <v>105</v>
       </c>
-      <c r="H86" s="131"/>
+      <c r="H86" s="159"/>
       <c r="I86" s="83"/>
-      <c r="J86" s="127"/>
+      <c r="J86" s="133"/>
       <c r="K86" s="18"/>
       <c r="L86" s="18"/>
       <c r="M86" s="18"/>
@@ -65560,23 +65624,23 @@
         <v>60</v>
       </c>
       <c r="B87" s="83" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="C87" s="89" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
-      <c r="D87" s="144"/>
-      <c r="E87" s="145" t="s">
+      <c r="D87" s="141"/>
+      <c r="E87" s="164" t="s">
         <v>59</v>
       </c>
-      <c r="F87" s="139"/>
-      <c r="G87" s="147" t="s">
-        <v>117</v>
+      <c r="F87" s="178"/>
+      <c r="G87" s="161" t="s">
+        <v>108</v>
       </c>
-      <c r="H87" s="155"/>
+      <c r="H87" s="162"/>
       <c r="I87" s="83"/>
-      <c r="J87" s="125" t="s">
-        <v>270</v>
+      <c r="J87" s="131" t="s">
+        <v>229</v>
       </c>
       <c r="K87" s="18"/>
       <c r="L87" s="18"/>
@@ -65602,20 +65666,20 @@
         <v>61</v>
       </c>
       <c r="B88" s="83" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="C88" s="87" t="s">
         <v>49</v>
       </c>
-      <c r="D88" s="144"/>
-      <c r="E88" s="145"/>
-      <c r="F88" s="139"/>
-      <c r="G88" s="147" t="s">
+      <c r="D88" s="141"/>
+      <c r="E88" s="164"/>
+      <c r="F88" s="178"/>
+      <c r="G88" s="161" t="s">
         <v>51</v>
       </c>
-      <c r="H88" s="155"/>
+      <c r="H88" s="162"/>
       <c r="I88" s="83"/>
-      <c r="J88" s="127"/>
+      <c r="J88" s="133"/>
       <c r="K88" s="18"/>
       <c r="L88" s="18"/>
       <c r="M88" s="18"/>
@@ -65640,23 +65704,23 @@
         <v>62</v>
       </c>
       <c r="B89" s="83" t="s">
+        <v>147</v>
+      </c>
+      <c r="C89" s="89" t="s">
+        <v>96</v>
+      </c>
+      <c r="D89" s="141"/>
+      <c r="E89" s="164" t="s">
         <v>160</v>
       </c>
-      <c r="C89" s="89" t="s">
-        <v>105</v>
+      <c r="F89" s="178"/>
+      <c r="G89" s="165" t="s">
+        <v>109</v>
       </c>
-      <c r="D89" s="144"/>
-      <c r="E89" s="145" t="s">
-        <v>187</v>
-      </c>
-      <c r="F89" s="139"/>
-      <c r="G89" s="146" t="s">
-        <v>118</v>
-      </c>
-      <c r="H89" s="147"/>
+      <c r="H89" s="161"/>
       <c r="I89" s="83"/>
-      <c r="J89" s="125" t="s">
-        <v>271</v>
+      <c r="J89" s="131" t="s">
+        <v>230</v>
       </c>
       <c r="K89" s="18"/>
       <c r="L89" s="18"/>
@@ -65682,20 +65746,20 @@
         <v>62</v>
       </c>
       <c r="B90" s="108" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="C90" s="89" t="s">
-        <v>214</v>
+        <v>183</v>
       </c>
-      <c r="D90" s="144"/>
-      <c r="E90" s="145"/>
-      <c r="F90" s="139"/>
-      <c r="G90" s="146" t="s">
-        <v>118</v>
+      <c r="D90" s="141"/>
+      <c r="E90" s="164"/>
+      <c r="F90" s="178"/>
+      <c r="G90" s="165" t="s">
+        <v>109</v>
       </c>
-      <c r="H90" s="147"/>
+      <c r="H90" s="161"/>
       <c r="I90" s="108"/>
-      <c r="J90" s="126"/>
+      <c r="J90" s="132"/>
       <c r="K90" s="18"/>
       <c r="L90" s="18"/>
       <c r="M90" s="18"/>
@@ -65720,20 +65784,20 @@
         <v>62</v>
       </c>
       <c r="B91" s="108" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="C91" s="89" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
-      <c r="D91" s="144"/>
-      <c r="E91" s="145"/>
-      <c r="F91" s="139"/>
-      <c r="G91" s="146" t="s">
-        <v>274</v>
+      <c r="D91" s="141"/>
+      <c r="E91" s="164"/>
+      <c r="F91" s="178"/>
+      <c r="G91" s="165" t="s">
+        <v>233</v>
       </c>
-      <c r="H91" s="156"/>
+      <c r="H91" s="172"/>
       <c r="I91" s="108"/>
-      <c r="J91" s="126"/>
+      <c r="J91" s="132"/>
       <c r="K91" s="18"/>
       <c r="L91" s="18"/>
       <c r="M91" s="18"/>
@@ -65758,20 +65822,20 @@
         <v>62</v>
       </c>
       <c r="B92" s="108" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="C92" s="89" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
-      <c r="D92" s="144"/>
-      <c r="E92" s="145"/>
-      <c r="F92" s="139"/>
-      <c r="G92" s="146" t="s">
-        <v>188</v>
+      <c r="D92" s="141"/>
+      <c r="E92" s="164"/>
+      <c r="F92" s="178"/>
+      <c r="G92" s="165" t="s">
+        <v>161</v>
       </c>
-      <c r="H92" s="147"/>
+      <c r="H92" s="161"/>
       <c r="I92" s="108"/>
-      <c r="J92" s="126"/>
+      <c r="J92" s="132"/>
       <c r="K92" s="18"/>
       <c r="L92" s="18"/>
       <c r="M92" s="18"/>
@@ -65796,20 +65860,20 @@
         <v>63</v>
       </c>
       <c r="B93" s="83" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="C93" s="89" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
-      <c r="D93" s="144"/>
-      <c r="E93" s="145"/>
-      <c r="F93" s="139"/>
-      <c r="G93" s="148" t="s">
-        <v>273</v>
+      <c r="D93" s="141"/>
+      <c r="E93" s="164"/>
+      <c r="F93" s="178"/>
+      <c r="G93" s="166" t="s">
+        <v>232</v>
       </c>
-      <c r="H93" s="149"/>
+      <c r="H93" s="167"/>
       <c r="I93" s="83"/>
-      <c r="J93" s="127"/>
+      <c r="J93" s="133"/>
       <c r="K93" s="18"/>
       <c r="L93" s="18"/>
       <c r="M93" s="18"/>
@@ -65834,23 +65898,23 @@
         <v>64</v>
       </c>
       <c r="B94" s="83" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="C94" s="89" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
-      <c r="D94" s="144"/>
+      <c r="D94" s="141"/>
       <c r="E94" s="88" t="s">
+        <v>101</v>
+      </c>
+      <c r="F94" s="178"/>
+      <c r="G94" s="168" t="s">
         <v>110</v>
       </c>
-      <c r="F94" s="139"/>
-      <c r="G94" s="150" t="s">
-        <v>119</v>
-      </c>
-      <c r="H94" s="151"/>
+      <c r="H94" s="169"/>
       <c r="I94" s="83"/>
       <c r="J94" s="77" t="s">
-        <v>258</v>
+        <v>217</v>
       </c>
       <c r="K94" s="18"/>
       <c r="L94" s="18"/>
@@ -65876,23 +65940,23 @@
         <v>65</v>
       </c>
       <c r="B95" s="83" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="C95" s="89" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
-      <c r="D95" s="144"/>
+      <c r="D95" s="141"/>
       <c r="E95" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="F95" s="139"/>
-      <c r="G95" s="150" t="s">
-        <v>112</v>
+      <c r="F95" s="178"/>
+      <c r="G95" s="168" t="s">
+        <v>103</v>
       </c>
-      <c r="H95" s="151"/>
+      <c r="H95" s="169"/>
       <c r="I95" s="83"/>
       <c r="J95" s="77" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="K95" s="18"/>
       <c r="L95" s="18"/>
@@ -65920,8 +65984,8 @@
       <c r="D96" s="85"/>
       <c r="E96" s="88"/>
       <c r="F96" s="79"/>
-      <c r="G96" s="152"/>
-      <c r="H96" s="152"/>
+      <c r="G96" s="127"/>
+      <c r="H96" s="127"/>
       <c r="I96" s="83"/>
       <c r="J96" s="78"/>
       <c r="K96" s="36"/>
@@ -65950,8 +66014,8 @@
       <c r="D97" s="85"/>
       <c r="E97" s="88"/>
       <c r="F97" s="79"/>
-      <c r="G97" s="143"/>
-      <c r="H97" s="143"/>
+      <c r="G97" s="163"/>
+      <c r="H97" s="163"/>
       <c r="I97" s="92"/>
       <c r="J97" s="78"/>
       <c r="K97" s="36"/>
@@ -65980,8 +66044,8 @@
       <c r="D98" s="85"/>
       <c r="E98" s="88"/>
       <c r="F98" s="79"/>
-      <c r="G98" s="143"/>
-      <c r="H98" s="143"/>
+      <c r="G98" s="163"/>
+      <c r="H98" s="163"/>
       <c r="I98" s="92"/>
       <c r="J98" s="77"/>
       <c r="K98" s="36"/>
@@ -66010,8 +66074,8 @@
       <c r="D99" s="85"/>
       <c r="E99" s="88"/>
       <c r="F99" s="79"/>
-      <c r="G99" s="143"/>
-      <c r="H99" s="143"/>
+      <c r="G99" s="163"/>
+      <c r="H99" s="163"/>
       <c r="I99" s="92"/>
       <c r="J99" s="77"/>
       <c r="K99" s="36"/>
@@ -66040,8 +66104,8 @@
       <c r="D100" s="85"/>
       <c r="E100" s="88"/>
       <c r="F100" s="79"/>
-      <c r="G100" s="143"/>
-      <c r="H100" s="143"/>
+      <c r="G100" s="163"/>
+      <c r="H100" s="163"/>
       <c r="I100" s="92"/>
       <c r="J100" s="77"/>
       <c r="K100" s="36"/>
@@ -66070,8 +66134,8 @@
       <c r="D101" s="85"/>
       <c r="E101" s="88"/>
       <c r="F101" s="79"/>
-      <c r="G101" s="143"/>
-      <c r="H101" s="143"/>
+      <c r="G101" s="163"/>
+      <c r="H101" s="163"/>
       <c r="I101" s="83"/>
       <c r="J101" s="77"/>
       <c r="K101" s="36"/>
@@ -66100,8 +66164,8 @@
       <c r="D102" s="85"/>
       <c r="E102" s="88"/>
       <c r="F102" s="79"/>
-      <c r="G102" s="143"/>
-      <c r="H102" s="143"/>
+      <c r="G102" s="163"/>
+      <c r="H102" s="163"/>
       <c r="I102" s="83"/>
       <c r="J102" s="77"/>
       <c r="K102" s="36"/>
@@ -69131,96 +69195,45 @@
     <row r="1002" spans="1:1" ht="26.25" customHeight="1"/>
     <row r="1003" spans="1:1" ht="26.25" customHeight="1"/>
   </sheetData>
-  <mergeCells count="137">
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="J5:J9"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="J14:J19"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="L3:M5"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="E5:E9"/>
-    <mergeCell ref="F5:F9"/>
-    <mergeCell ref="D5:D9"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="D20:D33"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="F20:F33"/>
-    <mergeCell ref="F14:F19"/>
-    <mergeCell ref="G13:H13"/>
+  <mergeCells count="141">
+    <mergeCell ref="D27:D31"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="D20:D22"/>
     <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="J34:J38"/>
-    <mergeCell ref="J58:J82"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="G81:H81"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G57:H57"/>
     <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="D39:D57"/>
+    <mergeCell ref="D58:D69"/>
+    <mergeCell ref="D70:D82"/>
+    <mergeCell ref="J83:J86"/>
+    <mergeCell ref="J87:J88"/>
+    <mergeCell ref="J89:J93"/>
+    <mergeCell ref="E39:E57"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="F39:F57"/>
+    <mergeCell ref="F34:F38"/>
+    <mergeCell ref="F83:F95"/>
+    <mergeCell ref="F58:F82"/>
+    <mergeCell ref="G85:H85"/>
     <mergeCell ref="G102:H102"/>
     <mergeCell ref="D83:D95"/>
     <mergeCell ref="E58:E69"/>
@@ -69245,30 +69258,85 @@
     <mergeCell ref="G92:H92"/>
     <mergeCell ref="G91:H91"/>
     <mergeCell ref="G90:H90"/>
-    <mergeCell ref="D39:D57"/>
-    <mergeCell ref="D58:D69"/>
-    <mergeCell ref="D70:D82"/>
-    <mergeCell ref="J83:J86"/>
-    <mergeCell ref="J87:J88"/>
-    <mergeCell ref="J89:J93"/>
-    <mergeCell ref="E39:E57"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="F39:F57"/>
-    <mergeCell ref="F34:F38"/>
-    <mergeCell ref="F83:F95"/>
-    <mergeCell ref="F58:F82"/>
-    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="J34:J38"/>
+    <mergeCell ref="J58:J82"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="F14:F19"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="J5:J9"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="J14:J19"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="L3:M5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="F5:F9"/>
+    <mergeCell ref="D5:D9"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B5:B9"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0" footer="0"/>
